--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -62,19 +62,43 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>ديتول صغير</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 9:44 AM</t>
+    <t>Monday, 11 August, 2025 9:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -748,13 +772,13 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
@@ -769,38 +793,104 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>131</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>23</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>22</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
         <v>23</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>171</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>30</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>31</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -819,10 +909,20 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ديتول صغير</t>
   </si>
   <si>
@@ -98,7 +107,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 9:51 AM</t>
+    <t>Monday, 11 August, 2025 9:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -805,21 +814,21 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -831,20 +840,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -859,38 +868,71 @@
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>171</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>26</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>30</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>31</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>267</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>34</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -919,10 +961,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>EMEREST 4MG/2ML 5 AMPOULES</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>112.50</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
     <t>LOLAWEST 3GM 6 SACHETS</t>
   </si>
   <si>
@@ -107,7 +119,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 9:56 AM</t>
+    <t>Monday, 11 August, 2025 10:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -814,7 +826,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -824,14 +836,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -840,28 +852,28 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -873,66 +885,99 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>267</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>32</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>30</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>289.5</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>37</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>38</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -966,10 +1011,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>ديتول صغير</t>
   </si>
   <si>
@@ -119,7 +131,19 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 10:35 AM</t>
+    <t>معجون كلوز اب الصغير</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Monday, 11 August, 2025 10:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -898,15 +922,15 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -918,66 +942,132 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>289.5</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
-        <v>36</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>34</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>38</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>34</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>328.5</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>44</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>45</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>46</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1016,10 +1106,20 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>22.5000</t>
   </si>
   <si>
+    <t>JAKARANDA 0.5MG 4 TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>LOLAWEST 3GM 6 SACHETS</t>
   </si>
   <si>
@@ -143,7 +152,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 10:47 AM</t>
+    <t>Monday, 11 August, 2025 11:08 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -883,7 +892,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -916,7 +925,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -926,11 +935,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -942,28 +951,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -975,20 +984,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1015,59 +1024,92 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>328.5</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>44</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>37</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>45</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>403.5</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>47</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>48</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>49</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1116,10 +1158,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
     <t>ديتول صغير</t>
   </si>
   <si>
@@ -152,7 +164,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 11:08 AM</t>
+    <t>Monday, 11 August, 2025 11:14 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,18 +1009,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1017,28 +1029,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1050,20 +1062,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1078,38 +1090,71 @@
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>403.5</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>47</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>48</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>41</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>49</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>515.5</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>51</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>52</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>53</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1163,10 +1208,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -44,12 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AGUAERSY CICA CREAM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>235.00</t>
+  </si>
+  <si>
+    <t>235.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -59,9 +74,6 @@
     <t>128.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -86,6 +98,18 @@
     <t>22.5000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>JAKARANDA 0.5MG 4 TAB</t>
   </si>
   <si>
@@ -134,9 +158,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>17.00</t>
   </si>
   <si>
@@ -164,7 +185,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 11:14 AM</t>
+    <t>Monday, 11 August, 2025 11:19 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -838,13 +859,13 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
@@ -877,7 +898,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -888,7 +909,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -904,24 +925,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -930,31 +951,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -963,28 +984,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -996,20 +1017,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1020,7 +1041,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1042,15 +1063,15 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1062,20 +1083,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1086,7 +1107,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1108,7 +1129,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1123,38 +1144,104 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>515.5</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>51</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>52</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>55</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>840.5</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>58</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>59</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>60</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1213,10 +1300,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -62,12 +62,27 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>128.00</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>EMEREST 4MG/2ML 5 AMPOULES</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>112.50</t>
   </si>
   <si>
@@ -110,6 +122,18 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>JAKARANDA 0.5MG 4 TAB</t>
   </si>
   <si>
@@ -119,6 +143,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>LOLAWEST 3GM 6 SACHETS</t>
   </si>
   <si>
@@ -155,15 +188,21 @@
     <t>ديتول صغير</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>17.00</t>
   </si>
   <si>
     <t>17.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -185,7 +224,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 11:19 AM</t>
+    <t>Monday, 11 August, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -859,24 +898,24 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -885,28 +924,28 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -918,31 +957,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -951,20 +990,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -975,7 +1014,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -991,24 +1030,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1017,28 +1056,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1050,28 +1089,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1083,20 +1122,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1107,7 +1146,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1123,21 +1162,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1149,20 +1188,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1195,7 +1234,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1206,42 +1245,174 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>38</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>59</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>840.5</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>58</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
-        <v>59</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
-        <v>60</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>68</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>69</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>1062.98</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>71</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>72</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>73</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1310,10 +1481,30 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>EMEREST 4MG/2ML 5 AMPOULES</t>
   </si>
   <si>
@@ -110,6 +122,33 @@
     <t>22.5000</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -161,6 +200,24 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -185,6 +242,15 @@
     <t>112.0000</t>
   </si>
   <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
     <t>ديتول صغير</t>
   </si>
   <si>
@@ -224,7 +290,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 11:46 AM</t>
+    <t>Monday, 11 August, 2025 11:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,7 +1063,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1007,11 +1073,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>22</v>
@@ -1023,14 +1089,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1063,24 +1129,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1089,14 +1155,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1106,14 +1172,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1122,14 +1188,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1139,14 +1205,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1155,14 +1221,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1179,7 +1245,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1228,7 +1294,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1238,14 +1304,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1254,28 +1320,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1287,28 +1353,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1320,31 +1386,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1353,66 +1419,297 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
         <v>70</v>
       </c>
-      <c t="s" r="Q22" s="12">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>19</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>1062.98</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>71</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>72</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>73</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>74</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>19</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>75</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>16</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>19</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>78</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>51</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>81</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>84</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>86</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>87</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>89</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>90</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>91</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1484.72</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>93</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>94</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>95</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1501,10 +1798,45 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -290,7 +290,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 11:51 AM</t>
+    <t>Monday, 11 August, 2025 11:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -80,6 +80,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -221,9 +233,6 @@
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>19.00</t>
   </si>
   <si>
@@ -290,7 +299,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 11:54 AM</t>
+    <t>Monday, 11 August, 2025 11:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,7 +1006,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1007,11 +1016,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1023,14 +1032,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1080,7 +1089,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1096,7 +1105,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1106,11 +1115,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>22</v>
@@ -1122,28 +1131,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>22</v>
@@ -1155,28 +1164,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>22</v>
@@ -1188,7 +1197,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1205,11 +1214,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1221,14 +1230,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1278,7 +1287,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1294,7 +1303,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1304,11 +1313,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1320,7 +1329,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1337,11 +1346,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1353,14 +1362,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1370,11 +1379,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1386,14 +1395,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1403,14 +1412,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1419,14 +1428,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1436,14 +1445,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1452,14 +1461,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1476,7 +1485,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1492,7 +1501,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1502,14 +1511,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1518,14 +1527,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1542,7 +1551,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1558,13 +1567,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1575,7 +1584,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1591,7 +1600,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1657,7 +1666,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1667,49 +1676,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1484.72</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>93</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>94</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1508.72</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>96</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>97</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>98</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1833,10 +1875,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -230,6 +230,12 @@
     <t>65.3400</t>
   </si>
   <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -299,7 +305,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 11:57 AM</t>
+    <t>Monday, 11 August, 2025 12:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1501,7 +1507,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1515,10 +1521,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1527,14 +1533,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1544,14 +1550,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1560,14 +1566,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1577,14 +1583,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1593,31 +1599,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1626,14 +1632,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1643,11 +1649,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1659,7 +1665,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1676,11 +1682,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1692,14 +1698,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1709,49 +1715,82 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1508.72</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>94</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>95</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>96</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1532.72</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
         <v>98</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>99</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>100</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1880,10 +1919,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -305,7 +305,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 12:00 PM</t>
+    <t>Monday, 11 August, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>DEXATOBRIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>EMEREST 4MG/2ML 5 AMPOULES</t>
   </si>
   <si>
@@ -203,6 +212,15 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>LOLAWEST 3GM 6 SACHETS</t>
   </si>
   <si>
@@ -275,6 +293,15 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">سباركل شامبو وبلسم صغير </t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -305,7 +332,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 12:03 PM</t>
+    <t>Monday, 11 August, 2025 12:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1144,7 +1171,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1161,7 +1188,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1177,13 +1204,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1210,13 +1237,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1276,7 +1303,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1286,11 +1313,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1302,14 +1329,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1319,14 +1346,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1335,14 +1362,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1408,7 +1435,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1441,7 +1468,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1458,7 +1485,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1474,7 +1501,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1491,7 +1518,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1507,7 +1534,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1521,7 +1548,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -1533,14 +1560,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1550,14 +1577,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1566,14 +1593,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1587,10 +1614,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,14 +1626,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1616,14 +1643,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1632,20 +1659,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1656,7 +1683,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1672,13 +1699,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1689,7 +1716,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1705,7 +1732,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1738,7 +1765,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1748,49 +1775,148 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>97</v>
       </c>
-      <c t="s" r="Q31" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1532.72</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>12</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>13</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>98</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>100</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>12</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>101</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>104</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>105</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1635.72</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>107</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>108</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>109</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1924,10 +2050,25 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>DEXATOBRIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -242,9 +254,6 @@
     <t>NEVILOB 5 MG 21 TAB</t>
   </si>
   <si>
-    <t>99.00</t>
-  </si>
-  <si>
     <t>65.3400</t>
   </si>
   <si>
@@ -332,7 +341,16 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 12:06 PM</t>
+    <t>ملقاط كارت</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Monday, 11 August, 2025 12:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1171,7 +1189,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1181,14 +1199,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1197,14 +1215,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1214,14 +1232,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1230,28 +1248,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1263,28 +1281,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>22</v>
@@ -1296,7 +1314,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1313,11 +1331,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1329,14 +1347,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1386,7 +1404,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1402,7 +1420,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1412,11 +1430,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1428,7 +1446,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1445,11 +1463,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1461,7 +1479,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1478,11 +1496,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1494,14 +1512,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1511,11 +1529,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1527,14 +1545,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1544,14 +1562,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1560,14 +1578,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1577,14 +1595,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1593,14 +1611,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1610,14 +1628,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1626,14 +1644,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1643,14 +1661,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1666,7 +1684,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1676,14 +1694,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1692,14 +1710,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1716,7 +1734,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1732,13 +1750,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1749,7 +1767,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1765,7 +1783,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1864,7 +1882,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1874,49 +1892,115 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>106</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1635.72</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>107</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>13</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>108</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>110</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>107</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>13</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>111</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1683.3900000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>113</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>114</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>115</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2065,10 +2149,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -350,7 +350,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 12:17 PM</t>
+    <t>Monday, 11 August, 2025 12:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>128.0000</t>
   </si>
   <si>
+    <t>CEREBROFORTE 20% SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -350,7 +359,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 12:19 PM</t>
+    <t>Monday, 11 August, 2025 12:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1123,7 +1132,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1133,11 +1142,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1149,14 +1158,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1166,14 +1175,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1182,14 +1191,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1199,11 +1208,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>22</v>
@@ -1215,14 +1224,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1239,7 +1248,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1255,7 +1264,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1272,7 +1281,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1288,13 +1297,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1321,13 +1330,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1387,7 +1396,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1397,11 +1406,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1413,14 +1422,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1430,14 +1439,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1446,14 +1455,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1552,7 +1561,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1585,7 +1594,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1602,7 +1611,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1618,7 +1627,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1628,14 +1637,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1644,14 +1653,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1661,14 +1670,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1677,14 +1686,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1694,14 +1703,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1717,7 +1726,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1727,14 +1736,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1743,14 +1752,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1767,7 +1776,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1783,13 +1792,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1800,7 +1809,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1816,7 +1825,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1915,7 +1924,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1925,11 +1934,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1941,14 +1950,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1969,38 +1978,71 @@
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1683.3900000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>113</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>110</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>13</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>114</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1745.3900000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>116</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>117</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>118</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2159,10 +2201,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -359,7 +359,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 12:22 PM</t>
+    <t>Monday, 11 August, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -281,6 +281,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>PONOFORTE 500MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
   </si>
   <si>
@@ -314,9 +323,6 @@
     <t xml:space="preserve">سباركل شامبو وبلسم صغير </t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -356,10 +362,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Monday, 11 August, 2025 12:26 PM</t>
+    <t>Monday, 11 August, 2025 12:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1759,7 +1762,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1769,14 +1772,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1785,14 +1788,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1809,7 +1812,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1825,13 +1828,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1842,7 +1845,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1858,7 +1861,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1901,11 +1904,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1917,7 +1920,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1934,11 +1937,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1950,14 +1953,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1967,11 +1970,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1983,14 +1986,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2000,49 +2003,82 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>115</v>
       </c>
-      <c t="s" r="Q37" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1745.3900000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>112</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>13</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>116</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1760.3900000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
         <v>117</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
         <v>118</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>119</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2206,10 +2242,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 12:40 PM</t>
+    <t>Monday, 11 August, 2025 12:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>128.0000</t>
   </si>
   <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CEREBROFORTE 20% SYRUP 120ML</t>
   </si>
   <si>
@@ -362,7 +374,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 12:42 PM</t>
+    <t>Monday, 11 August, 2025 12:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1135,7 +1147,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1145,11 +1157,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1161,14 +1173,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1218,7 +1230,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1267,7 +1279,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1277,14 +1289,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1293,14 +1305,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1310,14 +1322,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1326,28 +1338,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1359,28 +1371,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>22</v>
@@ -1392,7 +1404,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1409,11 +1421,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1425,14 +1437,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1482,7 +1494,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1498,7 +1510,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1508,11 +1520,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1524,7 +1536,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1541,11 +1553,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1557,7 +1569,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1574,11 +1586,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1590,14 +1602,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1607,11 +1619,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1623,14 +1635,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1640,14 +1652,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1656,14 +1668,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1673,14 +1685,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1689,14 +1701,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1706,14 +1718,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1722,14 +1734,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1739,14 +1751,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1755,14 +1767,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1772,14 +1784,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1788,14 +1800,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1812,7 +1824,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1828,7 +1840,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1838,14 +1850,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1854,31 +1866,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1887,14 +1899,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1904,11 +1916,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1920,7 +1932,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1937,11 +1949,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1953,7 +1965,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1970,11 +1982,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1986,14 +1998,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2026,7 +2038,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2036,49 +2048,82 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1760.3900000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>117</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>118</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>119</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>116</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>13</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>120</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1809.3900000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>121</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>122</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>123</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2247,10 +2292,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -113,6 +113,12 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>CEREBROFORTE 20% SYRUP 120ML</t>
   </si>
   <si>
@@ -215,12 +221,21 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>124.00</t>
   </si>
   <si>
@@ -314,6 +329,15 @@
     <t>112.0000</t>
   </si>
   <si>
+    <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -374,7 +398,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 12:43 PM</t>
+    <t>Monday, 11 August, 2025 1:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1190,14 +1214,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1206,14 +1230,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1223,11 +1247,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1239,14 +1263,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1256,14 +1280,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1272,14 +1296,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1289,11 +1313,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1305,14 +1329,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1322,14 +1346,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1338,14 +1362,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1355,14 +1379,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1371,28 +1395,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>22</v>
@@ -1404,28 +1428,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1437,7 +1461,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1454,11 +1478,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1470,14 +1494,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1487,11 +1511,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -1503,14 +1527,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1520,14 +1544,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1536,14 +1560,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1553,11 +1577,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1569,14 +1593,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1586,11 +1610,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1602,7 +1626,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1619,11 +1643,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1635,14 +1659,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1652,11 +1676,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1668,14 +1692,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1685,14 +1709,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1701,14 +1725,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1718,14 +1742,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1741,7 +1765,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1755,7 +1779,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1767,14 +1791,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1784,14 +1808,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1807,7 +1831,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1821,7 +1845,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -1833,14 +1857,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1850,14 +1874,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1866,14 +1890,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1883,11 +1907,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -1899,31 +1923,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1932,31 +1956,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1972,13 +1996,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1989,7 +2013,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2005,7 +2029,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2038,7 +2062,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2048,11 +2072,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2064,14 +2088,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2081,49 +2105,148 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1809.3900000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>120</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>12</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>13</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>121</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>123</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>124</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>13</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>125</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>127</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>124</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>13</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>128</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2007.3900000000001</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>129</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>130</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>131</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2297,10 +2420,25 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -80,6 +80,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -224,9 +236,6 @@
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>79.00</t>
   </si>
   <si>
@@ -317,6 +326,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
   </si>
   <si>
@@ -398,7 +419,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 1:03 PM</t>
+    <t>Monday, 11 August, 2025 1:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1122,7 +1143,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1138,7 +1159,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1148,11 +1169,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1164,14 +1185,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1204,7 +1225,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1214,14 +1235,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1230,7 +1251,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1247,14 +1268,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1263,14 +1284,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1320,7 +1341,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1369,7 +1390,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1379,14 +1400,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1395,14 +1416,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1412,14 +1433,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1428,28 +1449,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1461,28 +1482,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1494,7 +1515,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1511,11 +1532,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -1527,14 +1548,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1584,7 +1605,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1600,7 +1621,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1633,7 +1654,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1732,7 +1753,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1765,7 +1786,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1782,7 +1803,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1798,7 +1819,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1808,14 +1829,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1824,14 +1845,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1841,14 +1862,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1857,14 +1878,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1874,14 +1895,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1897,7 +1918,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1914,7 +1935,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1930,7 +1951,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1940,14 +1961,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1956,14 +1977,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1980,7 +2001,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1996,7 +2017,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2006,14 +2027,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2022,31 +2043,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2055,31 +2076,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2105,11 +2126,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2121,7 +2142,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2138,11 +2159,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2154,14 +2175,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2194,7 +2215,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2208,45 +2229,111 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2007.3900000000001</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>129</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>130</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
         <v>131</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>13</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>132</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>134</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>131</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>13</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>135</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2054.3899999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>136</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>137</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>138</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2435,10 +2522,20 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -419,7 +419,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 1:12 PM</t>
+    <t>Monday, 11 August, 2025 1:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
@@ -359,6 +368,9 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -419,7 +431,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 1:26 PM</t>
+    <t>Monday, 11 August, 2025 1:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1621,7 +1633,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1638,7 +1650,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1687,7 +1699,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1786,7 +1798,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1819,7 +1831,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1836,7 +1848,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1852,7 +1864,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1862,14 +1874,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1878,14 +1890,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1895,14 +1907,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1911,14 +1923,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1928,14 +1940,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1951,7 +1963,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1968,7 +1980,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1984,7 +1996,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1994,14 +2006,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2010,14 +2022,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2027,14 +2039,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2043,14 +2055,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2067,7 +2079,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2083,7 +2095,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2122,15 +2134,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2142,31 +2154,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2175,14 +2187,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2192,11 +2204,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2208,7 +2220,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2225,11 +2237,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2241,14 +2253,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2258,11 +2270,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2274,14 +2286,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2291,49 +2303,115 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2054.3899999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>134</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>135</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>13</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>136</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>138</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>135</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>13</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>139</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2195.9299999999998</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>140</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>141</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>142</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2532,10 +2610,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -212,6 +212,12 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -326,6 +332,9 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>PARAMOL 1000 MG 20 TABS.</t>
+  </si>
+  <si>
     <t>PONOFORTE 500MG 20 CAPS.</t>
   </si>
   <si>
@@ -368,6 +377,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>VITATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -431,7 +449,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 1:31 PM</t>
+    <t>Monday, 11 August, 2025 1:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1567,7 +1585,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1577,11 +1595,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -1593,14 +1611,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1610,11 +1628,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1626,14 +1644,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1643,11 +1661,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -1659,14 +1677,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1676,14 +1694,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1692,7 +1710,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1709,11 +1727,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1725,14 +1743,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1742,11 +1760,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1758,7 +1776,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1775,11 +1793,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1791,7 +1809,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1808,11 +1826,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1824,14 +1842,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1841,11 +1859,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1857,14 +1875,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1874,14 +1892,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1890,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1907,14 +1925,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1930,7 +1948,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1940,14 +1958,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1963,7 +1981,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1977,10 +1995,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1989,14 +2007,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2006,14 +2024,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2022,14 +2040,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2039,14 +2057,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2055,14 +2073,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2072,14 +2090,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2088,14 +2106,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2105,14 +2123,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2121,14 +2139,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2138,14 +2156,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,14 +2172,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2171,11 +2189,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2187,31 +2205,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2220,28 +2238,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2253,31 +2271,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2286,14 +2304,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2303,11 +2321,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2319,14 +2337,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2336,11 +2354,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2352,14 +2370,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2369,49 +2387,148 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2195.9299999999998</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>137</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>12</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>13</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>138</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>140</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
         <v>141</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>13</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>142</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>144</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>141</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>13</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>145</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2367.2800000000002</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>146</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>147</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>148</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2620,10 +2737,25 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -335,6 +335,15 @@
     <t>PARAMOL 1000 MG 20 TABS.</t>
   </si>
   <si>
+    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>72.50</t>
+  </si>
+  <si>
+    <t>14.5000</t>
+  </si>
+  <si>
     <t>PONOFORTE 500MG 20 CAPS.</t>
   </si>
   <si>
@@ -386,6 +395,15 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>VONASPIRE 20MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -449,7 +467,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 1:40 PM</t>
+    <t>Monday, 11 August, 2025 1:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2113,7 +2131,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2123,14 +2141,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2139,14 +2157,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2156,14 +2174,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2172,14 +2190,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2196,7 +2214,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2245,7 +2263,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2255,14 +2273,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2271,7 +2289,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2288,11 +2306,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2304,7 +2322,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2317,15 +2335,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2344,24 +2362,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2370,14 +2388,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2387,11 +2405,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2403,7 +2421,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2420,7 +2438,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2443,7 +2461,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2453,11 +2471,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2469,14 +2487,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2486,49 +2504,115 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2367.2800000000002</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>146</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
         <v>147</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>13</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>148</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>150</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>147</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>13</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>151</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2433.7800000000002</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>152</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>153</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>154</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2752,10 +2836,20 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 1:42 PM</t>
+    <t>Monday, 11 August, 2025 1:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -353,6 +353,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -407,6 +419,9 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
+    <t>288.0000</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -467,7 +482,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 1:43 PM</t>
+    <t>Monday, 11 August, 2025 1:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2214,7 +2229,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2230,7 +2245,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2240,14 +2255,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2256,7 +2271,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2273,11 +2288,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2289,14 +2304,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2306,11 +2321,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2322,14 +2337,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2339,14 +2354,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2355,7 +2370,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2372,14 +2387,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2388,31 +2403,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2421,14 +2436,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2438,11 +2453,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2454,7 +2469,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2471,11 +2486,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2487,7 +2502,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2504,11 +2519,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2520,14 +2535,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2537,11 +2552,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2553,14 +2568,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2570,49 +2585,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>155</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>152</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>13</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>156</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2433.7800000000002</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>152</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>153</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>154</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2667.7800000000002</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>157</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>158</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>159</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2846,10 +2894,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -482,7 +482,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 1:47 PM</t>
+    <t>Monday, 11 August, 2025 1:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -482,7 +482,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 1:48 PM</t>
+    <t>Monday, 11 August, 2025 3:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -164,6 +164,15 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
@@ -176,6 +185,18 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DEXATOBRIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -266,6 +287,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>JAKARANDA 0.5MG 4 TAB</t>
   </si>
   <si>
@@ -383,9 +413,6 @@
     <t>-1:0</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
     <t>112.0000</t>
   </si>
   <si>
@@ -416,6 +443,18 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8414:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -449,9 +488,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>2.0000</t>
   </si>
   <si>
@@ -482,7 +518,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 3:13 PM</t>
+    <t>Monday, 11 August, 2025 4:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1453,7 +1489,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1463,14 +1499,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1479,14 +1515,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1503,7 +1539,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1519,7 +1555,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1529,14 +1565,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1545,31 +1581,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1578,14 +1614,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1595,11 +1631,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -1611,28 +1647,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -1644,7 +1680,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1661,11 +1697,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1677,14 +1713,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1694,7 +1730,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1717,7 +1753,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1750,7 +1786,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1760,14 +1796,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1776,14 +1812,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1793,14 +1829,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1809,14 +1845,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1826,11 +1862,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1842,14 +1878,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1859,11 +1895,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1875,14 +1911,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1892,11 +1928,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1908,14 +1944,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1925,11 +1961,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1941,14 +1977,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1958,14 +1994,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1974,14 +2010,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1991,14 +2027,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2007,7 +2043,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2024,14 +2060,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2040,14 +2076,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2057,14 +2093,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2073,14 +2109,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2090,14 +2126,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2106,14 +2142,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2123,11 +2159,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2139,14 +2175,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2156,14 +2192,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2172,14 +2208,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2189,14 +2225,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2212,7 +2248,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2222,14 +2258,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2238,14 +2274,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2255,14 +2291,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2271,14 +2307,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2288,14 +2324,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2304,14 +2340,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2328,7 +2364,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2344,7 +2380,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2354,14 +2390,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2377,7 +2413,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2387,14 +2423,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2403,14 +2439,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2420,11 +2456,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2436,31 +2472,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2469,31 +2505,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2502,31 +2538,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2535,31 +2571,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2568,14 +2604,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2585,11 +2621,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2601,14 +2637,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2618,49 +2654,181 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2667.7800000000002</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>157</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>158</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>12</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>13</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>146</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>159</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>160</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>12</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>13</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>161</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>163</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>164</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>13</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>165</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>167</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>164</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>13</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>168</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2849.7800000000002</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>169</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>170</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>171</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2899,10 +3067,30 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -185,10 +185,19 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>21:0</t>
   </si>
   <si>
     <t>33.00</t>
@@ -206,6 +215,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
     <t>EMEREST 4MG/2ML 5 AMPOULES</t>
   </si>
   <si>
@@ -224,6 +242,18 @@
     <t>130.6800</t>
   </si>
   <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -254,9 +284,6 @@
     <t>1:1</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
     <t>90.0000</t>
   </si>
   <si>
@@ -518,7 +545,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 4:23 PM</t>
+    <t>Monday, 11 August, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1555,7 +1582,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1565,14 +1592,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1581,14 +1608,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1621,7 +1648,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1638,7 +1665,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1654,13 +1681,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1671,7 +1698,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1687,7 +1714,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1720,21 +1747,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -1746,14 +1773,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1763,14 +1790,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1779,14 +1806,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1796,11 +1823,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1812,14 +1839,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1829,7 +1856,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1852,7 +1879,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1869,7 +1896,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1885,7 +1912,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1895,14 +1922,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1918,7 +1945,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1935,7 +1962,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1951,7 +1978,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1984,7 +2011,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2017,7 +2044,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2050,7 +2077,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2083,7 +2110,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2100,7 +2127,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2116,7 +2143,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2126,14 +2153,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2142,7 +2169,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2159,14 +2186,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2175,14 +2202,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2192,14 +2219,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2208,14 +2235,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2225,14 +2252,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2241,14 +2268,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2258,11 +2285,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2274,14 +2301,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2291,14 +2318,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2307,14 +2334,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2324,14 +2351,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2340,14 +2367,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2357,14 +2384,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2373,14 +2400,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2390,14 +2417,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2406,14 +2433,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2423,14 +2450,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2439,14 +2466,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2463,7 +2490,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2479,7 +2506,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2489,14 +2516,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2512,7 +2539,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2522,14 +2549,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2538,14 +2565,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2555,14 +2582,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2611,24 +2638,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2637,31 +2664,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2670,31 +2697,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2703,14 +2730,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2720,11 +2747,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2736,14 +2763,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2753,7 +2780,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2776,7 +2803,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2786,49 +2813,148 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2849.7800000000002</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>169</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>12</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>13</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
         <v>170</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>172</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>173</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>13</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>174</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>176</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>173</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>13</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>177</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2970.9200000000001</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>178</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>179</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>180</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3087,10 +3213,25 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>BLEPHADEXOLINE EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -206,6 +215,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CYANARO 1% EYE DROPS 2.5 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DEXATOBRIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -368,6 +386,9 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
     <t>NEVILOB 5 MG 21 TAB</t>
   </si>
   <si>
@@ -401,6 +422,15 @@
     <t>14.5000</t>
   </si>
   <si>
+    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>PONOFORTE 500MG 20 CAPS.</t>
   </si>
   <si>
@@ -545,7 +575,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 5:24 PM</t>
+    <t>Monday, 11 August, 2025 5:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1384,7 +1414,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1394,14 +1424,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1410,7 +1440,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1427,14 +1457,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1450,7 +1480,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1460,11 +1490,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1476,14 +1506,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1493,14 +1523,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1509,14 +1539,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1533,7 +1563,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1549,7 +1579,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1559,14 +1589,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1575,14 +1605,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1615,7 +1645,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1625,14 +1655,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1641,14 +1671,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1681,7 +1711,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1714,7 +1744,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1731,7 +1761,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1747,13 +1777,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1764,7 +1794,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1797,7 +1827,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1806,28 +1836,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1839,7 +1869,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1856,14 +1886,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1872,7 +1902,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1889,11 +1919,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
@@ -1905,14 +1935,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1922,7 +1952,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -1945,7 +1975,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1978,7 +2008,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1988,14 +2018,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2011,7 +2041,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2028,7 +2058,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2044,7 +2074,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2077,7 +2107,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2110,7 +2140,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2143,7 +2173,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2176,7 +2206,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2209,7 +2239,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2226,7 +2256,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2242,7 +2272,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2252,14 +2282,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2268,14 +2298,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2285,11 +2315,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2301,14 +2331,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2318,11 +2348,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2341,7 +2371,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2351,14 +2381,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2367,14 +2397,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2384,11 +2414,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2407,7 +2437,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2424,7 +2454,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2440,7 +2470,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2450,14 +2480,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2466,14 +2496,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2483,14 +2513,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2499,14 +2529,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2516,14 +2546,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2532,7 +2562,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2549,11 +2579,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2565,14 +2595,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2582,14 +2612,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2598,14 +2628,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2615,14 +2645,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2631,14 +2661,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2648,11 +2678,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>28</v>
@@ -2664,14 +2694,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2681,14 +2711,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2697,14 +2727,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2714,11 +2744,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2730,31 +2760,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2763,31 +2793,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2803,24 +2833,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2836,13 +2866,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2853,7 +2883,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2869,7 +2899,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2879,11 +2909,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2895,14 +2925,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2912,49 +2942,181 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2970.9200000000001</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>177</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>12</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>13</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>165</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>178</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>179</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>12</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>13</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>180</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>182</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>183</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>13</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>184</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>186</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>183</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>13</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>187</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3135.9200000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>188</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>189</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>190</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3228,10 +3390,30 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>ECZANOGAB 2% OINTMENT</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
     <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
   </si>
   <si>
@@ -536,6 +545,15 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">زيت SUNSILK جوز هند 250 مل </t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">سباركل شامبو وبلسم صغير </t>
   </si>
   <si>
@@ -557,6 +575,12 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>كريم فاتيكا 125 مل</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
@@ -575,7 +599,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 5:36 PM</t>
+    <t>Monday, 11 August, 2025 5:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1777,13 +1801,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1810,7 +1834,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1827,7 +1851,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1843,13 +1867,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1876,13 +1900,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1893,7 +1917,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1902,14 +1926,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1919,14 +1943,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1942,7 +1966,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1952,11 +1976,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1968,14 +1992,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1985,7 +2009,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2008,7 +2032,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2018,7 +2042,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2041,7 +2065,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2051,7 +2075,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2074,7 +2098,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2091,7 +2115,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2140,7 +2164,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2173,7 +2197,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2239,7 +2263,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2272,7 +2296,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2305,7 +2329,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2322,7 +2346,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2338,7 +2362,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2348,14 +2372,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2364,14 +2388,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2381,14 +2405,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2397,14 +2421,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2414,14 +2438,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2430,14 +2454,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2447,14 +2471,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2470,7 +2494,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2480,14 +2504,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2496,7 +2520,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2513,11 +2537,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2536,7 +2560,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2553,7 +2577,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2569,7 +2593,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2586,7 +2610,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2602,7 +2626,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2612,14 +2636,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2628,14 +2652,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2645,11 +2669,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2661,14 +2685,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2678,14 +2702,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2701,7 +2725,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2711,14 +2735,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2767,7 +2791,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2800,7 +2824,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2810,14 +2834,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2826,14 +2850,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2843,14 +2867,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2859,14 +2883,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2876,14 +2900,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2899,13 +2923,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2916,7 +2940,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2932,7 +2956,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2942,11 +2966,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2958,14 +2982,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2975,11 +2999,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2991,7 +3015,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3008,11 +3032,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3024,14 +3048,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3041,11 +3065,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3057,14 +3081,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3074,49 +3098,148 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3135.9200000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>188</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>13</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>126</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>190</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>191</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>13</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>192</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>194</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>191</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>13</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>195</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3459.9200000000001</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>196</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>197</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>198</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3410,10 +3533,25 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -536,6 +536,15 @@
     <t>97.0200</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>ديتول صغير</t>
   </si>
   <si>
@@ -569,9 +578,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>3.0000</t>
   </si>
   <si>
@@ -599,7 +605,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 5:38 PM</t>
+    <t>Monday, 11 August, 2025 5:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2956,7 +2962,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2973,7 +2979,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2989,7 +2995,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3022,7 +3028,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3032,11 +3038,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3048,7 +3054,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3065,11 +3071,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3081,7 +3087,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3098,7 +3104,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3131,7 +3137,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3154,7 +3160,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3164,11 +3170,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3180,14 +3186,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3197,49 +3203,82 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>196</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>193</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>13</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>197</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>145</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3459.9200000000001</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>196</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>197</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3465.9200000000001</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
         <v>198</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>199</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>200</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3548,10 +3587,15 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -605,7 +605,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 5:50 PM</t>
+    <t>Monday, 11 August, 2025 5:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -293,7 +293,7 @@
     <t>ESMOPROTON 40 MG 14 CAPS</t>
   </si>
   <si>
-    <t>81.0000</t>
+    <t>162.0000</t>
   </si>
   <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
@@ -377,6 +377,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.50</t>
+  </si>
+  <si>
+    <t>100.5000</t>
+  </si>
+  <si>
     <t>LOLAWEST 3GM 6 SACHETS</t>
   </si>
   <si>
@@ -395,6 +404,18 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -605,7 +626,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 5:51 PM</t>
+    <t>Monday, 11 August, 2025 5:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2005,7 +2026,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2022,7 +2043,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2335,7 +2356,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2368,7 +2389,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2385,7 +2406,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2401,7 +2422,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,14 +2432,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2427,14 +2448,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,14 +2465,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,7 +2481,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2477,14 +2498,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,14 +2514,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,14 +2531,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2526,14 +2547,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,11 +2564,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,14 +2597,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2592,14 +2613,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,14 +2630,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,7 +2646,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2642,11 +2663,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2658,14 +2679,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2698,7 +2719,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,14 +2729,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2745,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2762,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2764,7 +2785,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,14 +2795,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2790,14 +2811,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2807,14 +2828,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2823,14 +2844,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2840,11 +2861,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2856,14 +2877,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2880,7 +2901,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2896,7 +2917,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2906,14 +2927,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2922,14 +2943,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2939,14 +2960,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2955,31 +2976,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,31 +3009,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3021,14 +3042,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3038,14 +3059,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3054,14 +3075,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3071,11 +3092,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3087,14 +3108,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3104,11 +3125,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3120,7 +3141,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3137,11 +3158,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3153,7 +3174,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3170,11 +3191,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3186,14 +3207,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3203,11 +3224,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3219,14 +3240,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3236,49 +3257,115 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3465.9200000000001</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>198</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>199</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
         <v>200</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>13</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>201</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>203</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>200</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>13</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>204</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3665.4200000000001</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>205</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>206</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>207</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3592,10 +3679,20 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
   </si>
   <si>
@@ -305,12 +317,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>90.0000</t>
   </si>
   <si>
@@ -626,7 +641,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 5:52 PM</t>
+    <t>Monday, 11 August, 2025 6:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1630,7 +1645,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1640,14 +1655,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1656,14 +1671,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1680,7 +1695,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1696,7 +1711,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1706,11 +1721,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1722,14 +1737,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1746,7 +1761,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1762,7 +1777,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1772,11 +1787,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1788,14 +1803,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1805,11 +1820,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1821,28 +1836,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1854,28 +1869,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1887,14 +1902,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1904,14 +1919,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1920,28 +1935,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
@@ -1953,31 +1968,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1993,7 +2008,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2010,7 +2025,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2019,14 +2034,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2036,14 +2051,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2052,14 +2067,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2069,14 +2084,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2085,14 +2100,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2102,11 +2117,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -2118,14 +2133,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2135,14 +2150,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2158,7 +2173,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2168,14 +2183,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2184,14 +2199,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2201,14 +2216,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2217,14 +2232,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2234,11 +2249,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2250,14 +2265,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2267,11 +2282,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2283,14 +2298,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2300,11 +2315,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2316,14 +2331,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2333,11 +2348,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2349,14 +2364,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2366,11 +2381,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2399,11 +2414,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2415,14 +2430,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2432,14 +2447,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2448,14 +2463,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2465,11 +2480,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2498,14 +2513,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2521,7 +2536,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2531,14 +2546,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2547,7 +2562,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2564,14 +2579,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2580,14 +2595,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2597,14 +2612,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2620,7 +2635,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2630,11 +2645,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2663,14 +2678,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2679,14 +2694,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2696,14 +2711,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2712,7 +2727,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2729,11 +2744,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2745,14 +2760,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2762,11 +2777,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2795,14 +2810,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2811,14 +2826,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2828,14 +2843,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2844,14 +2859,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2861,14 +2876,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2877,14 +2892,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2894,14 +2909,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2910,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2927,11 +2942,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2960,14 +2975,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2976,14 +2991,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2993,14 +3008,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3009,14 +3024,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3033,7 +3048,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3049,24 +3064,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3075,31 +3090,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3125,14 +3140,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3158,7 +3173,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3181,7 +3196,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3191,11 +3206,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3207,7 +3222,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3224,11 +3239,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3240,7 +3255,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3257,11 +3272,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3273,14 +3288,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3290,11 +3305,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3306,14 +3321,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3323,49 +3338,115 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3665.4200000000001</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>204</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
         <v>205</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>13</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>206</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>207</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>208</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>205</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>13</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>209</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3716.2399999999998</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>210</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>211</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>212</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3689,10 +3770,20 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>BLEPHADEXOLINE EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -134,6 +143,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>CARNIVITA FORTE 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>116.8200</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -164,9 +185,6 @@
     <t>CLATEX 75MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -497,6 +515,15 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -527,6 +554,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>VITASTRESS 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>VITATRON 30 CAPS</t>
   </si>
   <si>
@@ -641,7 +677,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 6:13 PM</t>
+    <t>Monday, 11 August, 2025 6:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1480,7 +1516,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1513,7 +1549,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1523,14 +1559,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1539,14 +1575,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1556,14 +1592,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1572,14 +1608,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1589,14 +1625,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1612,7 +1648,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1622,14 +1658,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1638,14 +1674,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1655,14 +1691,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1671,14 +1707,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1688,14 +1724,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1704,14 +1740,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1721,11 +1757,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1737,14 +1773,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1754,14 +1790,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1770,14 +1806,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1787,14 +1823,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1803,14 +1839,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1820,14 +1856,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1836,14 +1872,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1882,7 +1918,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1909,7 +1945,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1942,13 +1978,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1959,7 +1995,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1975,13 +2011,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1992,7 +2028,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2025,7 +2061,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2034,28 +2070,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -2067,14 +2103,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,14 +2120,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2100,7 +2136,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2117,11 +2153,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -2133,14 +2169,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2150,14 +2186,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2166,14 +2202,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,11 +2219,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2199,14 +2235,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,14 +2252,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2232,14 +2268,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,14 +2285,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2272,7 +2308,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2289,7 +2325,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2305,7 +2341,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2338,7 +2374,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2371,7 +2407,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2404,7 +2440,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2437,7 +2473,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2470,7 +2506,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2503,7 +2539,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2520,7 +2556,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2536,7 +2572,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,11 +2582,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2562,14 +2598,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,14 +2615,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,14 +2631,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,14 +2648,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,7 +2664,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2645,14 +2681,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2661,14 +2697,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,14 +2714,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2694,14 +2730,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,11 +2747,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2727,14 +2763,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,14 +2780,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2760,14 +2796,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,14 +2813,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2833,7 +2869,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,11 +2879,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2859,14 +2895,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,14 +2912,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2892,14 +2928,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,14 +2945,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2925,31 +2961,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2958,14 +2994,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2982,7 +3018,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2998,7 +3034,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,14 +3044,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3031,7 +3067,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,14 +3077,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,14 +3093,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,14 +3110,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3097,7 +3133,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3130,13 +3166,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3147,7 +3183,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3163,24 +3199,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3189,31 +3225,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3229,24 +3265,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3255,7 +3291,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3272,14 +3308,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3288,14 +3324,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3305,11 +3341,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3321,14 +3357,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,11 +3374,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3354,14 +3390,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3371,11 +3407,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3387,14 +3423,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3404,49 +3440,181 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3716.2399999999998</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>210</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>211</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>212</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>12</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>13</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>200</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>214</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>12</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>13</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>140</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>216</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>217</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>13</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>218</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>220</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>217</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>13</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>221</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>4100.0600000000004</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>222</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>223</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>224</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3780,10 +3948,30 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>ECZANOGAB 2% OINTMENT</t>
   </si>
   <si>
@@ -470,7 +479,7 @@
     <t>19.00</t>
   </si>
   <si>
-    <t>19.0000</t>
+    <t>38.0000</t>
   </si>
   <si>
     <t>PARAMOL 1000 MG 20 TABS.</t>
@@ -515,6 +524,9 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
     <t>ROYAL ZAD</t>
   </si>
   <si>
@@ -545,6 +557,15 @@
     <t>112.0000</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -554,6 +575,21 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>VITASTRESS 20 F.C. TABS.</t>
   </si>
   <si>
@@ -677,7 +713,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 6:14 PM</t>
+    <t>Monday, 11 August, 2025 6:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1978,13 +2014,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2011,13 +2047,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2044,7 +2080,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2061,7 +2097,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2077,13 +2113,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2110,13 +2146,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2127,7 +2163,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2136,14 +2172,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2153,14 +2189,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2176,7 +2212,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2186,14 +2222,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2202,14 +2238,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2219,14 +2255,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2242,7 +2278,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2252,14 +2288,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2268,14 +2304,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2285,14 +2321,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2301,7 +2337,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2318,7 +2354,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2341,7 +2377,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2358,7 +2394,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2407,7 +2443,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2440,7 +2476,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2506,7 +2542,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2539,7 +2575,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2572,7 +2608,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2605,7 +2641,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2622,7 +2658,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2638,7 +2674,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2648,14 +2684,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2664,14 +2700,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2681,11 +2717,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2697,14 +2733,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2714,14 +2750,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2730,14 +2766,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2747,14 +2783,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2763,14 +2799,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2780,14 +2816,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2803,7 +2839,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2813,14 +2849,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2829,7 +2865,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2846,11 +2882,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2869,7 +2905,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2886,7 +2922,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2902,7 +2938,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2919,7 +2955,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2935,7 +2971,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2945,14 +2981,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2961,20 +2997,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3001,7 +3037,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3011,11 +3047,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3027,31 +3063,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3060,14 +3096,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3077,14 +3113,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3093,14 +3129,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3110,14 +3146,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3126,14 +3162,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3143,11 +3179,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3159,14 +3195,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3176,11 +3212,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3192,14 +3228,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3209,14 +3245,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3225,14 +3261,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3242,14 +3278,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3258,7 +3294,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3275,14 +3311,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3291,31 +3327,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3324,31 +3360,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3357,31 +3393,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3390,31 +3426,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3423,31 +3459,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3456,7 +3492,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3473,14 +3509,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3496,7 +3532,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3506,11 +3542,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3522,14 +3558,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3562,7 +3598,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3572,49 +3608,214 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>4100.0600000000004</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>222</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>12</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>13</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>204</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
         <v>223</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>224</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>12</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>13</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>212</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>226</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>12</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>13</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>143</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>228</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>229</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>13</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>230</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>232</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>229</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>13</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>233</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>4488.6400000000003</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>234</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>235</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>236</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3968,10 +4169,35 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -236,13 +236,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>21:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
   </si>
   <si>
     <t>CYANARO 1% EYE DROPS 2.5 ML</t>
@@ -437,6 +437,18 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -566,6 +578,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -620,13 +641,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8414:0</t>
+    <t>8413:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -650,9 +671,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>ديتول صغير</t>
   </si>
   <si>
@@ -665,12 +683,6 @@
     <t xml:space="preserve">زيت SUNSILK جوز هند 250 مل </t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">سباركل شامبو وبلسم صغير </t>
   </si>
   <si>
@@ -698,9 +710,6 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -713,7 +722,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 6:31 PM</t>
+    <t>Monday, 11 August, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1932,7 +1941,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2674,7 +2683,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2724,7 +2733,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2740,7 +2749,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2750,11 +2759,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2783,14 +2792,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2799,14 +2808,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2849,14 +2858,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2882,14 +2891,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2898,7 +2907,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2915,11 +2924,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -2931,14 +2940,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2948,14 +2957,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3021,7 +3030,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3037,7 +3046,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3047,11 +3056,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3063,28 +3072,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3096,20 +3105,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3146,14 +3155,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3162,14 +3171,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3179,14 +3188,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3195,14 +3204,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3212,11 +3221,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3228,14 +3237,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3245,11 +3254,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3261,14 +3270,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3294,14 +3303,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3311,11 +3320,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3327,14 +3336,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3344,14 +3353,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3360,7 +3369,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3417,7 +3426,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3433,7 +3442,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3476,14 +3485,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3492,31 +3501,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3525,31 +3534,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3575,14 +3584,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3598,7 +3607,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3608,11 +3617,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3641,11 +3650,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3674,7 +3683,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3707,7 +3716,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3730,7 +3739,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3740,11 +3749,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3773,49 +3782,115 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4488.6400000000003</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>232</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>143</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>13</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>233</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>234</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>235</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>143</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>13</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
         <v>236</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4675.6400000000003</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>237</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>238</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>239</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4194,10 +4269,20 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -245,6 +245,12 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CYANARO 1% EYE DROPS 2.5 ML</t>
   </si>
   <si>
@@ -365,6 +371,15 @@
     <t>45.5400</t>
   </si>
   <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
@@ -524,6 +539,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -722,7 +746,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 6:33 PM</t>
+    <t>Monday, 11 August, 2025 6:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1957,7 +1981,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1967,14 +1991,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1983,14 +2007,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2000,11 +2024,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2016,14 +2040,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2033,11 +2057,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2049,28 +2073,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2082,28 +2106,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2115,14 +2139,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2132,14 +2156,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2148,28 +2172,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -2181,31 +2205,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2214,14 +2238,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2231,14 +2255,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2247,14 +2271,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2264,14 +2288,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2287,7 +2311,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2297,14 +2321,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2313,14 +2337,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2330,14 +2354,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2353,7 +2377,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2363,14 +2387,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2396,11 +2420,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2412,14 +2436,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2429,14 +2453,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2445,14 +2469,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2462,14 +2486,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2478,14 +2502,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2495,11 +2519,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2511,14 +2535,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2528,11 +2552,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2544,14 +2568,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2561,11 +2585,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2577,14 +2601,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2594,11 +2618,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2610,14 +2634,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2627,11 +2651,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2643,14 +2667,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2660,11 +2684,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2676,14 +2700,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2693,11 +2717,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2709,14 +2733,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2726,14 +2750,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2742,14 +2766,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2759,11 +2783,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2775,14 +2799,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2792,14 +2816,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2815,7 +2839,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2825,14 +2849,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2841,7 +2865,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2858,14 +2882,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2874,14 +2898,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2891,14 +2915,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2914,7 +2938,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2924,11 +2948,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -2940,14 +2964,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2957,14 +2981,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2973,14 +2997,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2990,14 +3014,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3006,7 +3030,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3023,11 +3047,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -3039,14 +3063,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3056,11 +3080,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3072,14 +3096,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3089,14 +3113,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3112,13 +3136,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3129,7 +3153,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3178,7 +3202,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3188,14 +3212,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3204,7 +3228,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3217,18 +3241,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3237,14 +3261,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3254,11 +3278,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3270,14 +3294,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3287,14 +3311,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3303,14 +3327,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3320,14 +3344,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3336,14 +3360,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3353,11 +3377,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3376,7 +3400,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3393,7 +3417,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3409,7 +3433,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3426,7 +3450,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3442,7 +3466,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3456,10 +3480,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3468,14 +3492,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3485,14 +3509,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3501,14 +3525,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3518,14 +3542,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3534,7 +3558,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3551,11 +3575,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>22</v>
@@ -3567,20 +3591,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3588,10 +3612,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3600,7 +3624,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3613,18 +3637,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3640,24 +3664,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3666,7 +3690,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3683,14 +3707,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3699,14 +3723,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3716,11 +3740,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3732,14 +3756,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3749,11 +3773,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3765,7 +3789,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3782,11 +3806,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3798,14 +3822,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3815,11 +3839,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3831,14 +3855,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3848,49 +3872,148 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4675.6400000000003</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>237</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>238</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>12</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>13</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>152</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>239</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>240</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>148</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>13</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>241</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>243</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>148</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>13</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>244</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4840.6999999999998</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>245</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>246</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>247</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4279,10 +4402,25 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -746,7 +746,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 6:37 PM</t>
+    <t>Monday, 11 August, 2025 6:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -62,15 +62,27 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>2:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -104,6 +116,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -146,9 +167,6 @@
     <t>CARNIVITA FORTE 30 F.C. TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>177.00</t>
   </si>
   <si>
@@ -170,12 +188,18 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>CETAFEN-N 120ML SUSP.</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -398,6 +422,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -488,6 +521,15 @@
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>NEVILOB 5 MG 21 TAB</t>
   </si>
   <si>
@@ -509,6 +551,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>PARAMOL 1000 MG 20 TABS.</t>
   </si>
   <si>
@@ -561,6 +612,18 @@
   </si>
   <si>
     <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
   </si>
   <si>
     <t>ROYAL ZAD</t>
@@ -1437,7 +1500,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1446,14 +1509,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1463,14 +1526,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>26</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1503,7 +1566,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1519,7 +1582,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1529,11 +1592,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1545,14 +1608,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1562,14 +1625,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1585,7 +1648,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1618,7 +1681,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1628,11 +1691,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1644,14 +1707,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1668,7 +1731,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1684,7 +1747,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1694,14 +1757,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1710,14 +1773,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1727,14 +1790,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1743,14 +1806,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1760,14 +1823,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1776,14 +1839,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1793,14 +1856,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1809,14 +1872,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1826,14 +1889,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1842,14 +1905,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1859,11 +1922,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1875,14 +1938,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1892,14 +1955,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1908,14 +1971,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1925,14 +1988,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1941,14 +2004,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1958,14 +2021,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1974,14 +2037,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1991,14 +2054,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2007,14 +2070,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2024,14 +2087,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2040,14 +2103,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2064,7 +2127,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2080,7 +2143,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2090,14 +2153,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2106,7 +2169,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2119,15 +2182,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2139,14 +2202,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2156,11 +2219,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2172,14 +2235,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2189,14 +2252,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2205,14 +2268,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2222,14 +2285,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2238,14 +2301,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2255,14 +2318,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2271,14 +2334,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2288,14 +2351,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2304,31 +2367,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2337,14 +2400,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2354,14 +2417,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2377,7 +2440,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2387,14 +2450,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2403,14 +2466,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2420,14 +2483,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2436,14 +2499,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2453,14 +2516,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2469,14 +2532,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2486,14 +2549,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2509,7 +2572,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2519,14 +2582,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2535,14 +2598,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2552,14 +2615,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2568,7 +2631,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2585,14 +2648,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2601,14 +2664,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2618,11 +2681,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2634,14 +2697,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2651,11 +2714,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2667,14 +2730,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2684,11 +2747,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2700,14 +2763,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2717,11 +2780,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2733,14 +2796,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2750,11 +2813,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2766,14 +2829,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2783,11 +2846,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2799,14 +2862,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2816,14 +2879,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2832,14 +2895,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2849,11 +2912,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2865,7 +2928,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2882,11 +2945,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2898,14 +2961,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2915,14 +2978,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2931,14 +2994,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2948,14 +3011,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2964,14 +3027,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,14 +3044,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2997,14 +3060,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,14 +3077,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3030,14 +3093,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3047,14 +3110,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3063,14 +3126,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3080,14 +3143,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3096,14 +3159,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,14 +3176,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3129,14 +3192,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3146,14 +3209,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3162,14 +3225,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3202,7 +3265,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3219,7 +3282,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3235,13 +3298,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3252,7 +3315,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3268,7 +3331,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3278,11 +3341,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3294,14 +3357,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3311,14 +3374,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3327,14 +3390,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3344,14 +3407,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3360,14 +3423,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3400,7 +3463,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,14 +3473,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3426,14 +3489,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,14 +3506,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3459,28 +3522,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3499,7 +3562,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3509,11 +3572,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3525,14 +3588,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3542,14 +3605,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,7 +3621,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3575,14 +3638,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3591,14 +3654,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3615,7 +3678,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3631,7 +3694,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3641,14 +3704,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3657,14 +3720,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3674,14 +3737,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3690,31 +3753,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3723,28 +3786,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3756,31 +3819,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3789,31 +3852,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3822,31 +3885,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3855,31 +3918,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3888,31 +3951,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3921,14 +3984,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3938,14 +4001,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3954,14 +4017,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3971,49 +4034,280 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4840.6999999999998</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>245</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>246</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>247</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>252</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>32</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>13</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>219</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>253</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>12</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>13</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>191</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>255</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>12</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>13</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>240</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>257</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>12</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>13</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>248</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>259</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>12</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>13</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>163</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>261</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>159</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>13</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>262</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>264</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>159</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>13</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>265</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5255.1800000000003</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>266</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>267</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>268</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4417,10 +4711,45 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -809,7 +809,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 6:58 PM</t>
+    <t>Monday, 11 August, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -62,15 +62,24 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
@@ -617,13 +626,16 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:16</t>
+    <t>0:13</t>
   </si>
   <si>
     <t>141.00</t>
   </si>
   <si>
-    <t>14.1000</t>
+    <t>35.2500</t>
+  </si>
+  <si>
+    <t>0:5</t>
   </si>
   <si>
     <t>ROYAL ZAD</t>
@@ -716,6 +728,15 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
     <t>VONASPIRE 20MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -779,7 +800,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -792,6 +813,15 @@
   </si>
   <si>
     <t>60.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معجون اسنان مسواك صغير </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
   </si>
   <si>
     <t>معجون كلوز اب الصغير</t>
@@ -1483,21 +1513,21 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1509,31 +1539,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1542,31 +1572,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1575,31 +1605,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1608,31 +1638,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1654,18 +1684,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>40</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1681,21 +1711,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1707,20 +1737,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1747,13 +1777,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1780,13 +1810,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1797,7 +1827,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1813,24 +1843,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1839,7 +1869,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1852,18 +1882,18 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1879,13 +1909,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1912,13 +1942,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1945,13 +1975,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1962,7 +1992,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1978,24 +2008,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2004,20 +2034,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2028,7 +2058,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2044,24 +2074,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2070,20 +2100,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2094,7 +2124,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2110,24 +2140,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2136,31 +2166,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2169,31 +2199,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2209,13 +2239,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2242,13 +2272,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2275,13 +2305,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2308,13 +2338,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2341,13 +2371,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2358,7 +2388,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2374,13 +2404,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2391,7 +2421,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2407,13 +2437,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2424,7 +2454,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>112</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2433,31 +2463,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>115</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2473,24 +2503,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2499,31 +2529,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2539,24 +2569,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2565,31 +2595,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2598,31 +2628,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2638,13 +2668,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2655,7 +2685,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2671,13 +2701,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2688,7 +2718,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2704,13 +2734,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2737,13 +2767,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2770,13 +2800,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2803,13 +2833,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2842,7 +2872,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2869,13 +2899,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2902,13 +2932,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2935,13 +2965,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2968,21 +2998,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2994,20 +3024,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3018,7 +3048,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3034,24 +3064,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3060,28 +3090,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3093,28 +3123,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3133,24 +3163,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3159,31 +3189,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3192,31 +3222,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3232,13 +3262,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3249,7 +3279,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3265,24 +3295,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3291,31 +3321,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3331,13 +3361,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3348,7 +3378,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3364,13 +3394,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3381,7 +3411,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3397,13 +3427,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3414,7 +3444,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3430,24 +3460,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3456,28 +3486,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3489,31 +3519,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3522,20 +3552,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3546,7 +3576,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3555,20 +3585,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3601,18 +3631,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3621,31 +3651,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3654,31 +3684,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3687,31 +3717,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3720,31 +3750,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3753,28 +3783,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3786,28 +3816,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3819,31 +3849,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3852,31 +3882,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3885,31 +3915,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3925,24 +3955,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3951,31 +3981,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3984,31 +4014,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>159</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4017,31 +4047,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4050,14 +4080,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4067,14 +4097,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4083,14 +4113,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4100,11 +4130,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4116,14 +4146,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4133,11 +4163,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4149,7 +4179,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4166,11 +4196,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4182,7 +4212,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4199,14 +4229,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4215,14 +4245,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4232,11 +4262,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4248,14 +4278,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4265,49 +4295,148 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5255.1800000000003</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>266</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>267</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>268</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>213</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>13</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>269</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>271</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>162</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>13</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>272</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>274</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>162</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>13</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>275</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5415.3299999999999</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>276</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>277</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>278</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4746,10 +4875,25 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -831,12 +831,6 @@
   </si>
   <si>
     <t>20.0000</t>
-  </si>
-  <si>
-    <t>ملقاط كارت</t>
-  </si>
-  <si>
-    <t>15.00</t>
   </si>
   <si>
     <t>Monday, 11 August, 2025 7:02 PM</t>
@@ -4372,71 +4366,38 @@
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="A95" s="7">
-        <v>89</v>
-      </c>
-      <c r="B95" s="7"/>
-      <c t="s" r="C95" s="8">
+      <c r="P95" s="13">
+        <v>5400.3299999999999</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
         <v>274</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c t="s" r="H95" s="9">
-        <v>162</v>
-      </c>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c t="s" r="L95" s="10">
-        <v>13</v>
-      </c>
-      <c r="M95" s="10"/>
-      <c t="s" r="N95" s="8">
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
         <v>275</v>
       </c>
-      <c r="O95" s="8"/>
-      <c t="s" r="P95" s="11">
-        <v>195</v>
-      </c>
-      <c t="s" r="Q95" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5415.3299999999999</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
         <v>276</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>277</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>278</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4885,15 +4846,10 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -833,7 +833,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 7:02 PM</t>
+    <t>Monday, 11 August, 2025 7:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>APEXIDONE 3MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -155,6 +164,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>BIPERIDEN 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -377,16 +395,16 @@
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>7.9200</t>
+    <t>6:5</t>
+  </si>
+  <si>
+    <t>11.7600</t>
   </si>
   <si>
     <t>FEROGLOBIN 30 CAPS</t>
@@ -671,12 +689,6 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
     <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
   </si>
   <si>
@@ -833,7 +845,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 7:03 PM</t>
+    <t>Monday, 11 August, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1705,7 +1717,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1722,7 +1734,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1738,7 +1750,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1748,11 +1760,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1764,14 +1776,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1804,7 +1816,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1837,7 +1849,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1854,7 +1866,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1870,7 +1882,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1880,14 +1892,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1896,14 +1908,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1913,14 +1925,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1929,14 +1941,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1946,14 +1958,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1969,7 +1981,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2002,7 +2014,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2019,7 +2031,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2035,7 +2047,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2045,14 +2057,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2061,14 +2073,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2078,14 +2090,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2094,14 +2106,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2111,11 +2123,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>29</v>
@@ -2127,14 +2139,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2144,14 +2156,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2160,14 +2172,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2177,14 +2189,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2193,14 +2205,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2210,7 +2222,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2233,7 +2245,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2243,14 +2255,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2259,14 +2271,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2276,14 +2288,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2299,7 +2311,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2332,13 +2344,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2365,7 +2377,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2398,13 +2410,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2415,7 +2427,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2431,13 +2443,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2448,7 +2460,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2481,7 +2493,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>115</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2490,28 +2502,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>29</v>
@@ -2523,14 +2535,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2540,14 +2552,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2556,7 +2568,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2573,11 +2585,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>29</v>
@@ -2589,14 +2601,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2606,14 +2618,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2622,14 +2634,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2639,11 +2651,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2655,14 +2667,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2672,14 +2684,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2688,14 +2700,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2705,7 +2717,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2728,7 +2740,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2745,7 +2757,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2761,7 +2773,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2778,7 +2790,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2794,7 +2806,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2827,7 +2839,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2893,7 +2905,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2926,7 +2938,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2959,7 +2971,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2992,7 +3004,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3025,7 +3037,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3035,11 +3047,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3051,14 +3063,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3068,14 +3080,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3084,14 +3096,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3101,11 +3113,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3117,14 +3129,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3134,14 +3146,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3150,14 +3162,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3167,11 +3179,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3183,14 +3195,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3200,14 +3212,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3216,14 +3228,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3233,14 +3245,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3249,14 +3261,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3266,14 +3278,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3282,14 +3294,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3299,14 +3311,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3322,7 +3334,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3332,14 +3344,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3348,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3365,14 +3377,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3381,14 +3393,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3398,14 +3410,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3454,7 +3466,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3471,7 +3483,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3487,7 +3499,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3497,14 +3509,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3513,14 +3525,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3530,14 +3542,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3546,14 +3558,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3563,14 +3575,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3586,21 +3598,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3612,14 +3624,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3629,14 +3641,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3645,31 +3657,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3678,14 +3690,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3702,7 +3714,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3718,7 +3730,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3728,14 +3740,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3751,7 +3763,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3761,11 +3773,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>29</v>
@@ -3777,14 +3789,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3794,11 +3806,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3810,14 +3822,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3827,14 +3839,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3843,14 +3855,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3860,11 +3872,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3876,14 +3888,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3893,14 +3905,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3909,14 +3921,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3926,11 +3938,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>114</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3942,14 +3954,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3959,11 +3971,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>29</v>
@@ -3975,14 +3987,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3992,14 +4004,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4008,14 +4020,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4025,14 +4037,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4041,14 +4053,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4058,14 +4070,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4074,31 +4086,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4107,31 +4119,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4140,14 +4152,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4157,14 +4169,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4180,7 +4192,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4190,11 +4202,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4206,14 +4218,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4223,14 +4235,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4256,7 +4268,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4289,14 +4301,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4312,7 +4324,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4322,11 +4334,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4338,14 +4350,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4355,49 +4367,115 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>272</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>219</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>13</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
         <v>273</v>
       </c>
-      <c t="s" r="Q94" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5400.3299999999999</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
         <v>274</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>275</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>168</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>13</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
         <v>276</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5496.75</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>278</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>279</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>280</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4846,10 +4924,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -449,6 +449,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>HISTAZINE-1 10MG 20 TAB</t>
   </si>
   <si>
@@ -698,6 +707,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>TARGOFLOXIN 750 MG 10 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>94.0000</t>
+  </si>
+  <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -845,7 +863,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 7:07 PM</t>
+    <t>Monday, 11 August, 2025 7:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2872,7 +2890,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2905,7 +2923,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2938,7 +2956,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3004,7 +3022,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3037,7 +3055,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3070,7 +3088,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3103,7 +3121,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3113,11 +3131,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3129,14 +3147,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3153,7 +3171,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3169,7 +3187,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3179,14 +3197,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3195,14 +3213,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3212,11 +3230,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3228,14 +3246,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3245,11 +3263,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3268,7 +3286,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3278,14 +3296,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3294,14 +3312,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3311,14 +3329,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3327,14 +3345,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3344,14 +3362,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3367,7 +3385,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3384,7 +3402,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3400,7 +3418,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3410,14 +3428,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3426,7 +3444,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3443,11 +3461,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3466,7 +3484,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3483,7 +3501,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3499,7 +3517,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3516,7 +3534,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3532,7 +3550,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3565,7 +3583,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,14 +3593,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3591,14 +3609,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3608,11 +3626,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3624,14 +3642,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3641,14 +3659,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3657,31 +3675,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>217</v>
-      </c>
-      <c t="s" r="Q73" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3697,21 +3715,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3723,14 +3741,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3740,14 +3758,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3763,7 +3781,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3773,14 +3791,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3789,14 +3807,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,14 +3824,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3829,7 +3847,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3846,7 +3864,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3862,7 +3880,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3879,7 +3897,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3895,7 +3913,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3909,10 +3927,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3921,14 +3939,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3938,11 +3956,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3954,14 +3972,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3971,14 +3989,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3994,7 +4012,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4004,11 +4022,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4027,7 +4045,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4074,10 +4092,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4086,14 +4104,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4103,14 +4121,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>165</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4126,7 +4144,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4136,14 +4154,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4152,31 +4170,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4185,31 +4203,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4218,14 +4236,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4235,14 +4253,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4251,14 +4269,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4268,11 +4286,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4284,14 +4302,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4301,14 +4319,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4317,7 +4335,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4334,11 +4352,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4350,7 +4368,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4367,14 +4385,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4383,14 +4401,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4400,11 +4418,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4416,14 +4434,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4433,7 +4451,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>175</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4444,38 +4462,104 @@
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5496.75</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>278</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>222</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>13</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
         <v>279</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>280</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>281</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>171</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>13</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>282</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5846.75</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>284</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>285</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>286</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4934,10 +5018,20 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -152,6 +152,18 @@
     <t>128.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
@@ -311,6 +323,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEXATOBRIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -497,9 +518,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -527,12 +545,18 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
     <t>57.0000</t>
   </si>
   <si>
+    <t>MEDIPHA D3 DROP</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -560,12 +584,6 @@
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>NEVILOB 5 MG 21 TAB</t>
   </si>
   <si>
@@ -674,6 +692,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -758,6 +785,15 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>VITOROLS 30 TABLETS</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 100MG 10 SUPP.</t>
   </si>
   <si>
@@ -803,6 +839,18 @@
     <t>97.0200</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>55:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -836,7 +884,10 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
   </si>
   <si>
     <t>كريم فاتيكا 125 مل</t>
@@ -845,6 +896,12 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
@@ -857,13 +914,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>Monday, 11 August, 2025 7:09 PM</t>
+    <t>Monday, 11 August, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1818,7 +1869,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1834,7 +1885,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1844,11 +1895,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1860,14 +1911,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1877,11 +1928,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1893,14 +1944,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1910,11 +1961,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1926,14 +1977,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1943,14 +1994,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1959,14 +2010,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1976,14 +2027,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1992,7 +2043,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2009,14 +2060,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2025,14 +2076,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2042,11 +2093,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2058,14 +2109,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2075,11 +2126,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2091,14 +2142,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2108,14 +2159,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2124,14 +2175,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2164,7 +2215,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2174,14 +2225,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2190,14 +2241,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2214,7 +2265,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2230,7 +2281,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2240,11 +2291,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>29</v>
@@ -2256,14 +2307,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2280,7 +2331,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2296,7 +2347,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2306,14 +2357,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2322,14 +2373,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2339,14 +2390,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2355,14 +2406,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2372,11 +2423,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2388,14 +2439,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2405,14 +2456,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2421,28 +2472,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2454,14 +2505,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2471,11 +2522,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2487,31 +2538,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2520,31 +2571,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2553,7 +2604,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2570,14 +2621,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2593,13 +2644,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2626,7 +2677,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2636,14 +2687,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2652,7 +2703,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2669,11 +2720,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2685,14 +2736,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2702,14 +2753,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2718,14 +2769,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2735,11 +2786,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2751,14 +2802,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2768,14 +2819,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2784,14 +2835,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2801,11 +2852,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2817,14 +2868,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2834,14 +2885,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2850,14 +2901,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2867,14 +2918,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2883,14 +2934,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2900,11 +2951,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2916,14 +2967,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2933,11 +2984,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2949,7 +3000,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2966,11 +3017,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2982,7 +3033,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2999,11 +3050,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3015,14 +3066,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3032,11 +3083,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3048,14 +3099,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3065,11 +3116,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3081,14 +3132,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3098,11 +3149,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3114,14 +3165,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3131,7 +3182,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3154,7 +3205,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3164,11 +3215,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3180,14 +3231,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3197,14 +3248,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3213,14 +3264,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3230,11 +3281,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3246,28 +3297,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3286,7 +3337,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3303,7 +3354,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3319,7 +3370,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3329,14 +3380,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3345,7 +3396,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3362,14 +3413,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3378,14 +3429,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3395,14 +3446,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3411,14 +3462,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3428,14 +3479,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3444,14 +3495,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3461,11 +3512,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3477,14 +3528,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3494,14 +3545,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3510,14 +3561,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3527,11 +3578,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3543,7 +3594,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3560,11 +3611,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
@@ -3576,14 +3627,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3593,11 +3644,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>29</v>
@@ -3609,14 +3660,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3626,11 +3677,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3642,14 +3693,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3659,14 +3710,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3675,14 +3726,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3692,14 +3743,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>217</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3708,28 +3759,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3741,14 +3792,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3758,11 +3809,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3774,14 +3825,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3791,14 +3842,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3807,7 +3858,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3820,18 +3871,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3840,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3857,14 +3908,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3873,14 +3924,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3890,14 +3941,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3906,14 +3957,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3923,14 +3974,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3939,14 +3990,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3956,14 +4007,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3972,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3989,11 +4040,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4005,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4022,14 +4073,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4038,7 +4089,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4055,11 +4106,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>29</v>
@@ -4071,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4088,11 +4139,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4104,14 +4155,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4121,14 +4172,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4137,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4154,14 +4205,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4170,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4187,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4203,14 +4254,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4220,14 +4271,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4236,31 +4287,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4269,31 +4320,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4302,31 +4353,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4335,31 +4386,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4368,31 +4419,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4401,14 +4452,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4418,11 +4469,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4434,7 +4485,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4451,14 +4502,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4467,14 +4518,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4484,11 +4535,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4500,14 +4551,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4517,49 +4568,313 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5846.75</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>284</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>285</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>286</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>12</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>13</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>209</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>288</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>12</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>13</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>269</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>290</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>12</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>13</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>281</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>291</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>12</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>13</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>292</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>293</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>12</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>13</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>183</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>295</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>296</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>13</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>36</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>297</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>231</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>13</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>298</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>300</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>177</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>13</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>278</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>6234.75</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>301</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>302</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>303</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5028,10 +5343,50 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -383,7 +383,7 @@
     <t>396.00</t>
   </si>
   <si>
-    <t>130.6800</t>
+    <t>261.3600</t>
   </si>
   <si>
     <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
@@ -449,7 +449,7 @@
     <t>144.00</t>
   </si>
   <si>
-    <t>72.0000</t>
+    <t>144.0000</t>
   </si>
   <si>
     <t>FUSI 2% CREAM 30 GM</t>
@@ -461,6 +461,15 @@
     <t>79.0000</t>
   </si>
   <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -593,9 +602,6 @@
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -914,7 +920,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 7:19 PM</t>
+    <t>Monday, 11 August, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2644,7 +2650,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2661,7 +2667,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2908,7 +2914,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2925,7 +2931,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2974,7 +2980,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2991,7 +2997,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3007,7 +3013,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3040,7 +3046,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3073,7 +3079,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3106,7 +3112,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3172,7 +3178,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3182,11 +3188,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3198,14 +3204,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3215,7 +3221,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3238,7 +3244,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3271,7 +3277,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3281,7 +3287,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3304,17 +3310,17 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3337,13 +3343,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3354,7 +3360,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3370,7 +3376,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3380,14 +3386,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3396,14 +3402,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3413,11 +3419,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3429,14 +3435,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,11 +3452,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3462,14 +3468,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3479,14 +3485,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3495,14 +3501,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3512,14 +3518,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3528,14 +3534,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3545,14 +3551,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3561,14 +3567,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,14 +3584,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3594,14 +3600,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,14 +3617,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3627,7 +3633,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3644,11 +3650,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>29</v>
@@ -3660,14 +3666,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3677,14 +3683,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3693,14 +3699,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,14 +3716,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3726,14 +3732,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3743,11 +3749,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3759,14 +3765,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3776,14 +3782,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3792,14 +3798,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,11 +3815,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3825,14 +3831,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,14 +3848,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3858,31 +3864,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,31 +3897,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3924,14 +3930,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,14 +3947,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3957,14 +3963,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,14 +3980,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3990,14 +3996,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,14 +4013,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4023,14 +4029,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4040,14 +4046,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4056,14 +4062,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,14 +4079,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4089,7 +4095,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4106,11 +4112,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>29</v>
@@ -4122,14 +4128,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,14 +4145,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4155,14 +4161,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,11 +4178,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4195,7 +4201,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4209,7 +4215,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4221,14 +4227,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,14 +4244,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,14 +4260,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,14 +4277,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,14 +4293,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,11 +4310,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>127</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4320,14 +4326,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4341,10 +4347,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4353,14 +4359,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,14 +4376,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4386,14 +4392,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,7 +4409,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4426,7 +4432,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4436,14 +4442,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4452,31 +4458,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4485,14 +4491,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4502,14 +4508,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4525,7 +4531,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4539,10 +4545,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,14 +4557,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4568,11 +4574,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4584,14 +4590,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,11 +4607,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4634,14 +4640,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4667,11 +4673,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>35</v>
@@ -4683,7 +4689,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4700,14 +4706,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4733,11 +4739,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4756,7 +4762,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,11 +4772,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4789,7 +4795,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,11 +4805,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>36</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4815,14 +4821,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,49 +4838,82 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>6234.75</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>301</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>302</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>180</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>13</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>280</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>6453.2700000000004</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
         <v>303</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>304</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>305</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5383,10 +5422,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -323,6 +323,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -476,7 +485,7 @@
     <t>124.00</t>
   </si>
   <si>
-    <t>124.0000</t>
+    <t>248.0000</t>
   </si>
   <si>
     <t>HERO BABY 1 MILK 400 GM</t>
@@ -920,7 +929,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 7:24 PM</t>
+    <t>Monday, 11 August, 2025 7:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2452,7 +2461,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2469,7 +2478,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2485,7 +2494,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2502,7 +2511,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2518,7 +2527,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2551,13 +2560,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2584,13 +2593,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2617,7 +2626,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2634,7 +2643,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2656,7 +2665,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2667,7 +2676,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2689,7 +2698,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2700,7 +2709,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>128</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2749,7 +2758,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2775,14 +2784,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>128</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2848,7 +2857,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2874,7 +2883,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2891,7 +2900,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2914,7 +2923,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2931,7 +2940,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2947,7 +2956,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2980,7 +2989,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2997,7 +3006,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3013,7 +3022,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3030,7 +3039,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3046,7 +3055,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3063,7 +3072,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3079,7 +3088,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3112,7 +3121,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3145,7 +3154,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3211,7 +3220,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3221,11 +3230,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3237,14 +3246,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3254,7 +3263,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3277,7 +3286,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3310,7 +3319,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3320,7 +3329,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3343,17 +3352,17 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3376,13 +3385,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3393,7 +3402,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3409,7 +3418,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3419,14 +3428,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3435,14 +3444,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3452,11 +3461,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3468,14 +3477,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3485,11 +3494,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3518,14 +3527,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3534,14 +3543,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3551,14 +3560,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3567,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3584,14 +3593,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3607,7 +3616,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3624,7 +3633,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3640,7 +3649,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3666,7 +3675,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3683,11 +3692,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3706,7 +3715,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3723,7 +3732,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3739,7 +3748,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3756,7 +3765,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3772,7 +3781,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3805,7 +3814,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3815,14 +3824,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3831,14 +3840,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3848,11 +3857,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3864,14 +3873,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3881,14 +3890,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3897,31 +3906,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>228</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3937,13 +3946,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3954,7 +3963,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3970,7 +3979,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3980,14 +3989,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3996,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4013,14 +4022,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4036,7 +4045,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4046,14 +4055,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4079,14 +4088,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4102,7 +4111,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4119,7 +4128,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4168,7 +4177,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4185,7 +4194,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4201,7 +4210,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4215,7 +4224,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4244,11 +4253,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4267,7 +4276,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4284,7 +4293,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4300,7 +4309,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4317,7 +4326,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4333,7 +4342,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4343,11 +4352,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>127</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4366,7 +4375,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4376,14 +4385,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4399,7 +4408,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4409,14 +4418,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4425,14 +4434,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4442,11 +4451,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>177</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>31</v>
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4475,14 +4484,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4498,24 +4507,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4545,10 +4554,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4557,14 +4566,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4574,14 +4583,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4597,7 +4606,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4607,11 +4616,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4623,14 +4632,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4640,11 +4649,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4656,7 +4665,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4673,14 +4682,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4689,7 +4698,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4706,11 +4715,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>35</v>
@@ -4722,7 +4731,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4739,14 +4748,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4755,7 +4764,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4772,11 +4781,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4788,14 +4797,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4805,11 +4814,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4821,14 +4830,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4838,11 +4847,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4861,7 +4870,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4871,49 +4880,82 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>6453.2700000000004</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>303</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>304</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>305</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>183</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>13</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>283</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6621.2700000000004</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>306</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>307</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>308</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5427,10 +5469,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -929,7 +929,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 7:25 PM</t>
+    <t>Monday, 11 August, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -929,7 +929,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 7:32 PM</t>
+    <t>Monday, 11 August, 2025 7:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -116,499 +116,517 @@
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>APEXIDONE 3MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>BIPERIDEN 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BLEPHADEXOLINE EYE DROPS 10 ML</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>24.00</t>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>CARNIVITA FORTE 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>116.8200</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>CEREBROFORTE 20% SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN-N 120ML SUSP.</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>CYANARO 1% EYE DROPS 2.5 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXATOBRIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>ECZANOGAB 2% OINTMENT</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
+    <t>EMEREST 4MG/2ML 5 AMPOULES</t>
+  </si>
+  <si>
+    <t>112.50</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>261.3600</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:5</t>
+  </si>
+  <si>
+    <t>11.7600</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>248.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>JAKARANDA 0.5MG 4 TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.50</t>
+  </si>
+  <si>
+    <t>100.5000</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MEDIPHA D3 DROP</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>APEXIDONE 3MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>B.B.C. ORAL SPRAY 25 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>BIPERIDEN 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BLEPHADEXOLINE EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>CARNIVITA FORTE 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>116.8200</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>CEREBROFORTE 20% SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>CETAFEN-N 120ML SUSP.</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CLATEX 75MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>CYANARO 1% EYE DROPS 2.5 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXATOBRIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>ECZANOGAB 2% OINTMENT</t>
-  </si>
-  <si>
-    <t>169.00</t>
-  </si>
-  <si>
-    <t>169.0000</t>
-  </si>
-  <si>
-    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>31.5000</t>
-  </si>
-  <si>
-    <t>EMEREST 4MG/2ML 5 AMPOULES</t>
-  </si>
-  <si>
-    <t>112.50</t>
-  </si>
-  <si>
-    <t>22.5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>261.3600</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:5</t>
-  </si>
-  <si>
-    <t>11.7600</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>248.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>JAKARANDA 0.5MG 4 TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.50</t>
-  </si>
-  <si>
-    <t>100.5000</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MEDIPHA D3 DROP</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
-  </si>
-  <si>
-    <t>NEVILOB 5 MG 21 TAB</t>
-  </si>
-  <si>
-    <t>65.3400</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
+    <t>OREX ORAL SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>79.50</t>
+  </si>
+  <si>
+    <t>79.5000</t>
   </si>
   <si>
     <t>OTAL EAR DROPS 5 ML</t>
@@ -626,7 +644,7 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>92.0000</t>
+    <t>115.0000</t>
   </si>
   <si>
     <t>PARAMOL 1000 MG 20 TABS.</t>
@@ -776,6 +794,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -899,6 +926,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سلاكه ازن خشب كبيره</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -929,7 +959,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 7:33 PM</t>
+    <t>Monday, 11 August, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1735,7 +1765,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1745,14 +1775,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1761,7 +1791,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1782,10 +1812,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1794,7 +1824,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1811,11 +1841,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>29</v>
@@ -1827,7 +1857,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1844,11 +1874,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1860,14 +1890,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1877,11 +1907,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>29</v>
@@ -1893,14 +1923,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1910,11 +1940,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1926,7 +1956,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1943,11 +1973,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1959,7 +1989,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1976,11 +2006,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1992,14 +2022,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2032,7 +2062,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2049,7 +2079,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2131,7 +2161,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2197,7 +2227,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2379,7 +2409,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2395,7 +2425,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2461,7 +2491,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2527,7 +2557,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2593,24 +2623,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2619,28 +2649,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2652,14 +2682,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2669,14 +2699,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2685,7 +2715,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2698,18 +2728,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2718,7 +2748,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2731,18 +2761,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2751,14 +2781,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2768,14 +2798,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2784,14 +2814,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,14 +2831,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2817,14 +2847,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2834,14 +2864,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2850,14 +2880,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2867,14 +2897,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>131</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2883,14 +2913,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2900,14 +2930,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2916,7 +2946,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2933,11 +2963,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2949,14 +2979,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2966,14 +2996,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2982,14 +3012,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2999,11 +3029,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3015,14 +3045,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3032,14 +3062,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3048,14 +3078,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3065,14 +3095,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3081,14 +3111,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3098,14 +3128,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3114,14 +3144,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3131,14 +3161,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3147,7 +3177,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3164,11 +3194,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3180,7 +3210,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3197,11 +3227,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3213,14 +3243,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3230,11 +3260,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3246,14 +3276,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,11 +3293,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3279,14 +3309,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,11 +3326,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3312,14 +3342,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3329,11 +3359,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3345,14 +3375,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3362,11 +3392,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3378,28 +3408,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3411,14 +3441,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3428,14 +3458,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3444,28 +3474,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3477,14 +3507,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3494,14 +3524,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3510,14 +3540,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3527,11 +3557,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3550,7 +3580,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,14 +3590,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3576,14 +3606,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,14 +3623,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3609,14 +3639,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3626,14 +3656,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3642,14 +3672,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,14 +3689,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3675,14 +3705,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3692,14 +3722,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3708,14 +3738,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3725,14 +3755,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3741,14 +3771,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,14 +3788,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3774,7 +3804,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3791,11 +3821,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>29</v>
@@ -3807,14 +3837,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3824,11 +3854,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>29</v>
@@ -3840,14 +3870,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3857,11 +3887,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3873,14 +3903,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3890,14 +3920,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3906,14 +3936,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,14 +3953,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>228</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3939,28 +3969,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3972,14 +4002,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3989,14 +4019,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4005,14 +4035,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,14 +4052,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4038,31 +4068,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4071,14 +4101,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,14 +4118,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4104,14 +4134,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,11 +4151,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4137,14 +4167,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4154,14 +4184,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4170,14 +4200,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,11 +4217,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>29</v>
@@ -4203,14 +4233,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4220,11 +4250,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4236,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,14 +4283,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4269,14 +4299,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,14 +4316,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4302,14 +4332,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,14 +4349,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4335,14 +4365,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4352,14 +4382,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4368,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4385,11 +4415,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4401,7 +4431,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4418,14 +4448,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4434,14 +4464,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,14 +4481,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4467,14 +4497,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4484,14 +4514,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>180</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4500,14 +4530,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4517,14 +4547,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4533,31 +4563,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,31 +4596,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,7 +4629,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4612,18 +4642,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>288</v>
+        <v>182</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4632,31 +4662,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,14 +4695,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4682,11 +4712,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4698,7 +4728,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4715,14 +4745,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4731,14 +4761,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4748,14 +4778,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4764,14 +4794,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4781,11 +4811,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4797,7 +4827,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4814,11 +4844,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4830,14 +4860,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4847,14 +4877,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>37</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4863,14 +4893,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4880,14 +4910,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4903,7 +4933,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4913,49 +4943,214 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6621.2700000000004</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>306</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>12</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>13</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
         <v>307</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>308</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>12</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>13</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>191</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>310</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>311</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>13</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>35</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>312</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>242</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>13</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>313</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>315</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>185</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>13</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>292</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6964.5200000000004</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>316</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>317</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>318</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5474,10 +5669,35 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>116.8200</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -507,6 +516,15 @@
   </si>
   <si>
     <t>256.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
   </si>
   <si>
     <t>HISTAZINE-1 10MG 20 TAB</t>
@@ -2095,7 +2113,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2105,11 +2123,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>29</v>
@@ -2121,7 +2139,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2138,14 +2156,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2161,7 +2179,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2194,7 +2212,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2227,7 +2245,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2244,7 +2262,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2260,7 +2278,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2270,11 +2288,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>29</v>
@@ -2286,14 +2304,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2310,7 +2328,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2326,7 +2344,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2336,14 +2354,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2352,14 +2370,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2392,7 +2410,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2402,14 +2420,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2418,14 +2436,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2435,14 +2453,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2451,14 +2469,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2468,14 +2486,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2491,7 +2509,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2524,7 +2542,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2541,7 +2559,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2557,7 +2575,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2574,7 +2592,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2590,7 +2608,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2623,7 +2641,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2633,14 +2651,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2649,31 +2667,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2689,13 +2707,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2722,7 +2740,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2739,7 +2757,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2761,7 +2779,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2772,7 +2790,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2794,7 +2812,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2805,7 +2823,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2814,14 +2832,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2831,14 +2849,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>135</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2854,7 +2872,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2864,14 +2882,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2880,14 +2898,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2897,14 +2915,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2913,14 +2931,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2930,14 +2948,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>132</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2953,7 +2971,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2963,14 +2981,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2979,14 +2997,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2996,7 +3014,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3019,7 +3037,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3036,7 +3054,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3052,7 +3070,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3085,7 +3103,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3118,7 +3136,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3135,7 +3153,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3151,7 +3169,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3168,7 +3186,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3184,7 +3202,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3201,7 +3219,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3217,7 +3235,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3250,7 +3268,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3267,7 +3285,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3316,7 +3334,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3326,11 +3344,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3342,14 +3360,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3359,11 +3377,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3375,14 +3393,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3392,11 +3410,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3408,14 +3426,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3425,7 +3443,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3448,7 +3466,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3458,7 +3476,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3481,13 +3499,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3514,7 +3532,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3524,14 +3542,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3547,21 +3565,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3573,14 +3591,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3590,14 +3608,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3606,14 +3624,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3623,11 +3641,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3639,14 +3657,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3656,14 +3674,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3672,14 +3690,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3689,14 +3707,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3705,14 +3723,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3722,14 +3740,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3738,14 +3756,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3755,14 +3773,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3778,7 +3796,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3795,7 +3813,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3811,7 +3829,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3821,14 +3839,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3837,14 +3855,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,14 +3872,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3870,14 +3888,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3887,14 +3905,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3943,7 +3961,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3960,7 +3978,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3976,7 +3994,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3986,14 +4004,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4002,14 +4020,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,14 +4037,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4035,14 +4053,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4052,14 +4070,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>234</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4075,21 +4093,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4101,14 +4119,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,14 +4136,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>240</v>
-      </c>
-      <c t="s" r="Q83" s="12">
-        <v>132</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4141,21 +4159,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4167,14 +4185,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4184,14 +4202,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>61</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4200,14 +4218,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,14 +4235,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4233,14 +4251,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,14 +4268,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4266,14 +4284,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,11 +4301,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>29</v>
@@ -4306,7 +4324,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4323,7 +4341,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4339,7 +4357,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4356,7 +4374,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4372,7 +4390,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4405,7 +4423,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4419,7 +4437,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4431,14 +4449,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4448,14 +4466,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4464,14 +4482,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,14 +4499,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4504,7 +4522,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4537,7 +4555,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4565,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>131</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4570,7 +4588,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4587,7 +4605,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4617,10 +4635,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4629,14 +4647,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4646,14 +4664,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4669,7 +4687,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,14 +4697,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4695,31 +4713,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>291</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>188</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4728,31 +4746,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4768,7 +4786,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>31</v>
+        <v>297</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4778,11 +4796,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4794,14 +4812,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4811,14 +4829,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4827,14 +4845,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4844,11 +4862,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4860,14 +4878,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4877,14 +4895,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4893,7 +4911,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4910,14 +4928,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>226</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4926,14 +4944,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,14 +4961,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4959,7 +4977,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4976,14 +4994,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4992,14 +5010,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5009,11 +5027,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5025,14 +5043,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5042,11 +5060,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>35</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5058,14 +5076,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,11 +5093,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>197</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5091,14 +5109,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5108,49 +5126,115 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>292</v>
+        <v>35</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6964.5200000000004</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>316</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>317</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>318</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>248</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>13</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>319</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>321</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>191</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>13</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>298</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>7094.0200000000004</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>322</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>323</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>324</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5694,10 +5778,20 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -977,7 +977,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 8:08 PM</t>
+    <t>Monday, 11 August, 2025 8:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -347,7 +347,7 @@
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>47.8800</t>
   </si>
   <si>
     <t>DEXATOBRIN EYE OINT. 5 GM</t>
@@ -545,6 +545,9 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>JAKARANDA 0.5MG 4 TAB</t>
   </si>
   <si>
@@ -581,6 +584,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -611,15 +623,12 @@
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>18.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -938,7 +947,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -977,7 +986,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 8:09 PM</t>
+    <t>Monday, 11 August, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2575,7 +2584,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2592,7 +2601,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -3367,7 +3376,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>62</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3393,7 +3402,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3410,11 +3419,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3433,7 +3442,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3443,11 +3452,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3476,11 +3485,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3509,11 +3518,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3542,11 +3551,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3558,7 +3567,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3571,15 +3580,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3608,14 +3617,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3624,28 +3633,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3674,14 +3683,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3707,14 +3716,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3723,14 +3732,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3740,14 +3749,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3763,7 +3772,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3773,14 +3782,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3806,14 +3815,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3822,14 +3831,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3839,14 +3848,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3855,14 +3864,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3872,14 +3881,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3888,14 +3897,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3905,14 +3914,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3921,14 +3930,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3938,14 +3947,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3954,14 +3963,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3971,14 +3980,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3987,7 +3996,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4004,11 +4013,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>29</v>
@@ -4020,14 +4029,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4037,14 +4046,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4070,14 +4079,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4086,14 +4095,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4103,14 +4112,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4119,14 +4128,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4136,14 +4145,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4152,28 +4161,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4185,14 +4194,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4202,14 +4211,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>135</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4218,28 +4227,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4251,14 +4260,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>61</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4268,14 +4277,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>61</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4284,14 +4293,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4301,14 +4310,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4317,14 +4326,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4334,14 +4343,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4350,14 +4359,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4367,11 +4376,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>29</v>
@@ -4383,14 +4392,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4400,14 +4409,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4416,14 +4425,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4433,14 +4442,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4449,14 +4458,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4466,11 +4475,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>29</v>
@@ -4482,14 +4491,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4499,11 +4508,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4515,14 +4524,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4532,14 +4541,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4548,14 +4557,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4565,14 +4574,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4581,14 +4590,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4598,11 +4607,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4614,14 +4623,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4631,14 +4640,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>134</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4647,14 +4656,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4664,14 +4673,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4680,14 +4689,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4697,14 +4706,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4713,14 +4722,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4730,14 +4739,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4746,14 +4755,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4763,14 +4772,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4779,31 +4788,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>298</v>
+        <v>189</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4812,31 +4821,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4845,14 +4854,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>31</v>
+        <v>300</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4862,11 +4871,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4878,14 +4887,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4895,14 +4904,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4911,14 +4920,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4928,7 +4937,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4951,7 +4960,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4961,14 +4970,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4977,7 +4986,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4994,14 +5003,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5017,7 +5026,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5027,14 +5036,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5043,7 +5052,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5060,14 +5069,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5083,7 +5092,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5093,11 +5102,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5109,14 +5118,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5126,11 +5135,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>35</v>
+        <v>316</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5142,14 +5151,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5159,11 +5168,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>201</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5175,14 +5184,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>191</v>
+        <v>320</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5192,49 +5201,115 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>298</v>
+        <v>35</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>7094.0200000000004</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>321</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>251</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>13</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
         <v>322</v>
       </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>323</v>
       </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>324</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>195</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>13</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>301</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>7338.0200000000004</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>325</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>326</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>327</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5788,10 +5863,20 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 8:13 PM</t>
+    <t>Monday, 11 August, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -908,6 +908,15 @@
     <t>97.0200</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -956,12 +965,21 @@
     <t>سلاكه ازن خشب كبيره</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>كريم فاتيكا 125 مل</t>
   </si>
   <si>
@@ -986,7 +1004,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 8:20 PM</t>
+    <t>Monday, 11 August, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4875,7 +4893,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4887,14 +4905,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4908,10 +4926,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4920,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4937,14 +4955,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4960,7 +4978,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4970,11 +4988,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4986,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,11 +5021,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5019,7 +5037,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5036,14 +5054,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5052,7 +5070,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5069,14 +5087,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>61</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5085,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,14 +5120,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5118,14 +5136,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5135,11 +5153,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5151,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5168,11 +5186,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5184,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,11 +5219,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>35</v>
+        <v>301</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5217,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,11 +5252,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5250,14 +5268,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5267,49 +5285,115 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>7338.0200000000004</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>325</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>326</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>327</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>251</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>13</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>328</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>330</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>195</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>13</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>304</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>7365.0200000000004</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>331</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>332</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>333</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5873,10 +5957,20 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 8:21 PM</t>
+    <t>Monday, 11 August, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -440,6 +440,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -986,6 +995,9 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>كيس جمع بول</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1004,7 +1016,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 8:29 PM</t>
+    <t>Monday, 11 August, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3008,14 +3020,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>135</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3031,7 +3043,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3041,14 +3053,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3057,7 +3069,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3074,7 +3086,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3097,7 +3109,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3114,7 +3126,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3130,7 +3142,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3163,7 +3175,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3196,7 +3208,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3213,7 +3225,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3229,7 +3241,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3246,7 +3258,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3262,7 +3274,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3279,7 +3291,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3295,7 +3307,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3312,7 +3324,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3328,7 +3340,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3345,7 +3357,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3361,7 +3373,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3394,7 +3406,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3404,14 +3416,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3420,14 +3432,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3437,14 +3449,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3470,11 +3482,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3486,14 +3498,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3503,11 +3515,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3519,14 +3531,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3536,7 +3548,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3559,7 +3571,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3592,7 +3604,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3625,7 +3637,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3635,7 +3647,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3658,17 +3670,17 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3691,13 +3703,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3708,7 +3720,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3724,7 +3736,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3734,14 +3746,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3757,7 +3769,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3767,14 +3779,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3783,14 +3795,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3800,11 +3812,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3816,14 +3828,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3833,14 +3845,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3849,14 +3861,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3866,14 +3878,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3882,14 +3894,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3899,14 +3911,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3922,7 +3934,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3939,7 +3951,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3955,7 +3967,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3972,7 +3984,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3988,7 +4000,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3998,14 +4010,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4014,7 +4026,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4031,11 +4043,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>29</v>
@@ -4054,7 +4066,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4071,7 +4083,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4087,7 +4099,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4104,7 +4116,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4120,7 +4132,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4153,7 +4165,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,14 +4175,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4179,14 +4191,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4196,11 +4208,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4212,14 +4224,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,14 +4241,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>243</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4245,31 +4257,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>246</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4285,13 +4297,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4302,7 +4314,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4318,7 +4330,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>61</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,14 +4340,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4344,14 +4356,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4361,14 +4373,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4384,7 +4396,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,14 +4406,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4410,14 +4422,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4427,14 +4439,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4450,7 +4462,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4467,7 +4479,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4516,7 +4528,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4533,7 +4545,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4549,7 +4561,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4566,7 +4578,7 @@
         <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4582,7 +4594,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>251</v>
+        <v>61</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4596,10 +4608,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4608,14 +4620,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4625,11 +4637,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4648,7 +4660,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4665,7 +4677,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4681,7 +4693,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4698,7 +4710,7 @@
         <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4714,7 +4726,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4724,11 +4736,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>134</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4747,7 +4759,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,14 +4769,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4780,7 +4792,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,14 +4802,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4806,14 +4818,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,11 +4835,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>31</v>
@@ -4839,14 +4851,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,14 +4868,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>192</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4879,24 +4891,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4926,7 +4938,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4938,14 +4950,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4959,10 +4971,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,14 +4983,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,14 +5000,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5011,7 +5023,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,11 +5033,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5037,14 +5049,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,11 +5066,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5070,7 +5082,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5087,14 +5099,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,7 +5115,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5120,14 +5132,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>61</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5136,14 +5148,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,14 +5165,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5169,14 +5181,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>319</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,11 +5198,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5202,14 +5214,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,11 +5231,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5235,7 +5247,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5252,11 +5264,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5268,14 +5280,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,11 +5297,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>211</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5301,14 +5313,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,11 +5330,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5334,14 +5346,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,49 +5363,115 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>304</v>
+        <v>35</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>7365.0200000000004</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>331</v>
       </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>254</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>13</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
         <v>332</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>333</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>334</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>198</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>13</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>307</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>7420.6599999999999</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>335</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>336</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>337</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5967,10 +6045,20 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -1016,7 +1016,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 8:31 PM</t>
+    <t>Monday, 11 August, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -218,7 +218,7 @@
     <t>86.00</t>
   </si>
   <si>
-    <t>43.0000</t>
+    <t>86.0000</t>
   </si>
   <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
@@ -473,6 +473,15 @@
     <t>45.5400</t>
   </si>
   <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
   </si>
   <si>
@@ -617,9 +626,6 @@
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -1016,7 +1022,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 8:34 PM</t>
+    <t>Monday, 11 August, 2025 8:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2152,7 +2158,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2169,7 +2175,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -3142,7 +3148,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3159,7 +3165,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3175,7 +3181,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3208,7 +3214,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3241,7 +3247,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3258,7 +3264,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3274,7 +3280,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3291,7 +3297,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3307,7 +3313,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3324,7 +3330,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3340,7 +3346,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3357,7 +3363,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3373,7 +3379,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3390,7 +3396,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3406,7 +3412,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3439,7 +3445,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3449,14 +3455,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3465,14 +3471,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3482,14 +3488,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3515,11 +3521,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3531,14 +3537,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3548,11 +3554,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3581,7 +3587,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3604,7 +3610,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3637,7 +3643,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3670,7 +3676,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3680,7 +3686,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3703,17 +3709,17 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3736,13 +3742,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3750,10 +3756,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3762,14 +3768,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3779,14 +3785,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3795,14 +3801,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3812,14 +3818,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3828,14 +3834,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3845,11 +3851,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3861,14 +3867,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3878,14 +3884,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3901,7 +3907,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3911,14 +3917,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3934,7 +3940,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3944,14 +3950,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3960,14 +3966,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3977,14 +3983,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3993,14 +3999,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4010,14 +4016,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4026,14 +4032,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4043,14 +4049,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4059,7 +4065,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4076,11 +4082,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>29</v>
@@ -4092,14 +4098,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4109,14 +4115,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4125,14 +4131,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4142,14 +4148,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4158,14 +4164,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4175,11 +4181,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>29</v>
@@ -4191,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4208,14 +4214,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4224,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4241,11 +4247,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4257,14 +4263,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4274,14 +4280,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>35</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4290,31 +4296,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4323,31 +4329,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4356,14 +4362,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4373,14 +4379,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4389,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4406,14 +4412,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4422,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4439,14 +4445,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4455,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4472,14 +4478,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4488,14 +4494,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4505,14 +4511,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4521,7 +4527,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4538,11 +4544,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>29</v>
@@ -4554,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4571,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4587,14 +4593,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4604,14 +4610,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4620,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4637,14 +4643,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4660,7 +4666,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4674,7 +4680,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4686,14 +4692,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4703,14 +4709,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4719,14 +4725,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4736,14 +4742,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4752,14 +4758,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4769,11 +4775,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4785,14 +4791,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4806,10 +4812,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4818,14 +4824,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>294</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4835,14 +4841,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4851,14 +4857,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4868,7 +4874,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4891,7 +4897,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4901,14 +4907,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4917,31 +4923,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4950,14 +4956,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4967,11 +4973,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4983,14 +4989,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5000,14 +5006,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5023,7 +5029,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5037,10 +5043,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5049,14 +5055,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5066,11 +5072,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5082,14 +5088,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5099,11 +5105,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5132,14 +5138,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>318</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5165,14 +5171,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>61</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5181,14 +5187,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5198,14 +5204,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5214,14 +5220,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>322</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5231,11 +5237,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5247,14 +5253,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5264,11 +5270,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5280,7 +5286,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5297,11 +5303,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>327</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5320,7 +5326,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5330,11 +5336,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>307</v>
+        <v>206</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5346,14 +5352,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5363,11 +5369,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5386,7 +5392,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5396,11 +5402,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>332</v>
+        <v>35</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5412,14 +5418,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,49 +5435,82 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>7420.6599999999999</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>335</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>336</v>
       </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>201</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>13</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>309</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7518.6599999999999</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
         <v>337</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>338</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>339</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6055,10 +6094,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -1022,7 +1022,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 8:35 PM</t>
+    <t>Monday, 11 August, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CEFIXIME 100MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -254,6 +263,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>CLATEX 75MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -413,237 +428,243 @@
     <t>180.00</t>
   </si>
   <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:5</t>
+  </si>
+  <si>
+    <t>11.7600</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>248.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>JAKARANDA 0.5MG 4 TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.50</t>
+  </si>
+  <si>
+    <t>100.5000</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MEDIPHA D3 DROP</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
     <t>54.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:5</t>
-  </si>
-  <si>
-    <t>11.7600</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>248.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>JAKARANDA 0.5MG 4 TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.50</t>
-  </si>
-  <si>
-    <t>100.5000</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MEDIPHA D3 DROP</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -704,12 +725,6 @@
     <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
     <t>PONOFORTE 500MG 20 CAPS.</t>
   </si>
   <si>
@@ -743,6 +758,15 @@
     <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
   </si>
   <si>
+    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -779,9 +803,6 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -845,6 +866,12 @@
     <t>57.7500</t>
   </si>
   <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -965,9 +992,6 @@
     <t xml:space="preserve">سباركل شامبو وبلسم صغير </t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1022,7 +1046,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 8:43 PM</t>
+    <t>Monday, 11 August, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2191,7 +2215,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2201,14 +2225,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2217,7 +2241,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2234,14 +2258,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2257,7 +2281,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2290,7 +2314,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2323,7 +2347,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2340,7 +2364,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2366,14 +2390,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2382,14 +2406,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2399,14 +2423,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2415,14 +2439,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2432,11 +2456,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>29</v>
@@ -2448,14 +2472,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2465,14 +2489,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2481,14 +2505,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2498,14 +2522,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2514,14 +2538,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2531,11 +2555,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -2547,14 +2571,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2571,7 +2595,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2587,7 +2611,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2597,14 +2621,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2613,14 +2637,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2630,14 +2654,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2646,7 +2670,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2663,11 +2687,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2679,14 +2703,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2696,14 +2720,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2712,14 +2736,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2729,14 +2753,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2745,28 +2769,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2778,14 +2802,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2795,14 +2819,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2811,31 +2835,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2844,31 +2868,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2877,7 +2901,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2894,14 +2918,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2910,31 +2934,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2943,7 +2967,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2960,14 +2984,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2976,7 +3000,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2993,7 +3017,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -3016,7 +3040,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3026,14 +3050,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3042,14 +3066,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3059,14 +3083,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>135</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3075,14 +3099,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3092,14 +3116,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3108,14 +3132,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3125,14 +3149,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3141,14 +3165,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3158,11 +3182,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>29</v>
@@ -3174,14 +3198,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3191,14 +3215,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3207,14 +3231,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3224,14 +3248,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3240,7 +3264,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3257,11 +3281,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3273,14 +3297,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3290,14 +3314,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3306,14 +3330,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3323,14 +3347,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3339,14 +3363,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3356,14 +3380,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3372,14 +3396,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3389,14 +3413,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3405,14 +3429,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3422,11 +3446,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3438,14 +3462,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3455,14 +3479,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3471,14 +3495,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3488,14 +3512,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3511,7 +3535,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3554,11 +3578,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3570,7 +3594,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3587,14 +3611,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3610,7 +3634,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3643,7 +3667,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3653,11 +3677,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3669,14 +3693,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3686,11 +3710,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3702,14 +3726,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3719,11 +3743,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3735,28 +3759,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3768,14 +3792,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3785,14 +3809,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3801,14 +3825,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3818,14 +3842,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3834,28 +3858,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3867,14 +3891,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3884,14 +3908,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3900,14 +3924,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3917,14 +3941,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3933,7 +3957,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3950,14 +3974,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3966,14 +3990,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3983,11 +4007,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4006,7 +4030,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4016,14 +4040,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4032,14 +4056,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4049,14 +4073,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4065,14 +4089,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4082,14 +4106,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4105,7 +4129,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4122,7 +4146,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4138,7 +4162,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4155,7 +4179,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4181,11 +4205,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>29</v>
@@ -4197,14 +4221,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4214,11 +4238,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>29</v>
@@ -4230,14 +4254,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4247,11 +4271,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>71</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4263,14 +4287,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4280,14 +4304,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4296,14 +4320,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4313,14 +4337,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>248</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4329,28 +4353,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4362,14 +4386,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4379,14 +4403,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>35</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4395,14 +4419,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4412,11 +4436,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4428,14 +4452,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4445,14 +4469,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>61</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4461,7 +4485,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4474,18 +4498,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4494,14 +4518,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4511,14 +4535,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4527,14 +4551,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4544,14 +4568,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4560,14 +4584,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4577,14 +4601,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4593,14 +4617,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4610,14 +4634,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4626,14 +4650,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4643,14 +4667,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4659,14 +4683,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4676,14 +4700,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4692,14 +4716,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4709,14 +4733,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4725,14 +4749,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4742,14 +4766,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4758,14 +4782,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4775,14 +4799,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4791,14 +4815,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4808,11 +4832,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>134</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4824,14 +4848,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4841,14 +4865,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4857,14 +4881,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4874,14 +4898,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4890,14 +4914,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4907,14 +4931,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4923,14 +4947,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4940,14 +4964,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4956,28 +4980,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4989,31 +5013,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>308</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5022,31 +5046,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5055,7 +5079,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5068,18 +5092,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5088,31 +5112,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5121,14 +5145,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5138,11 +5162,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>234</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5154,14 +5178,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5171,14 +5195,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5187,7 +5211,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5204,11 +5228,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>61</v>
@@ -5227,7 +5251,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5237,11 +5261,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5253,14 +5277,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>324</v>
+        <v>61</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5270,11 +5294,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5286,7 +5310,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5303,11 +5327,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5319,7 +5343,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5336,14 +5360,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5352,14 +5376,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5369,14 +5393,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5385,14 +5409,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5402,11 +5426,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>216</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5418,14 +5442,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5435,11 +5459,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5451,14 +5475,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5468,49 +5492,214 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7518.6599999999999</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>336</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>12</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>13</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>212</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>337</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>338</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>250</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>13</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>318</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>339</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>340</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>13</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>35</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>341</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>250</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>13</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>342</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>343</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>344</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>207</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>13</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>318</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7717.6599999999999</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>345</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>346</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>347</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6099,10 +6288,35 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
@@ -98,9 +113,6 @@
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -323,13 +335,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>66.0000</t>
+    <t>99.0000</t>
   </si>
   <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
@@ -386,6 +398,15 @@
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>ECZANOGAB 2% OINTMENT</t>
   </si>
   <si>
@@ -593,6 +614,18 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
   </si>
   <si>
@@ -746,13 +779,13 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>3:5</t>
+    <t>3:3</t>
   </si>
   <si>
     <t>42.00</t>
   </si>
   <si>
-    <t>42.0000</t>
+    <t>55.8600</t>
   </si>
   <si>
     <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
@@ -1046,7 +1079,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 9:03 PM</t>
+    <t>Monday, 11 August, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1770,7 +1803,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1779,14 +1812,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1796,14 +1829,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1836,7 +1869,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1852,7 +1885,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1862,14 +1895,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1878,7 +1911,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1895,14 +1928,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1911,14 +1944,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1928,14 +1961,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1944,14 +1977,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1961,14 +1994,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1977,14 +2010,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2001,7 +2034,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2034,7 +2067,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2050,7 +2083,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2060,11 +2093,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2076,14 +2109,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2093,11 +2126,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2109,14 +2142,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2149,7 +2182,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2159,14 +2192,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2175,14 +2208,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2192,14 +2225,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2208,14 +2241,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2225,11 +2258,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2241,14 +2274,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2258,14 +2291,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2274,7 +2307,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2291,14 +2324,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2307,14 +2340,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2324,11 +2357,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2340,14 +2373,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2357,11 +2390,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2373,14 +2406,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2390,11 +2423,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2406,14 +2439,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2423,14 +2456,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2439,14 +2472,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2463,7 +2496,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2479,7 +2512,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2489,14 +2522,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2505,14 +2538,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2529,7 +2562,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2545,7 +2578,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2555,14 +2588,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2571,14 +2604,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2595,7 +2628,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2611,7 +2644,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2621,14 +2654,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2637,14 +2670,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2654,14 +2687,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2670,14 +2703,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2687,11 +2720,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2703,14 +2736,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2720,14 +2753,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2736,14 +2769,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2753,14 +2786,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2769,14 +2802,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2786,11 +2819,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2802,14 +2835,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2819,14 +2852,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2835,31 +2868,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2868,14 +2901,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2885,14 +2918,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2901,31 +2934,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2934,31 +2967,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2967,14 +3000,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2984,14 +3017,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>139</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3000,31 +3033,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3033,7 +3066,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3050,14 +3083,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3066,7 +3099,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3083,14 +3116,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3099,14 +3132,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3116,14 +3149,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3132,14 +3165,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3149,14 +3182,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>152</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3165,14 +3198,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3182,14 +3215,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3198,14 +3231,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3215,14 +3248,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3231,14 +3264,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3248,14 +3281,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3264,14 +3297,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3281,14 +3314,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3297,14 +3330,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3314,14 +3347,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3330,14 +3363,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3347,11 +3380,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3363,14 +3396,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3380,14 +3413,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3396,14 +3429,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3413,14 +3446,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3429,14 +3462,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3446,14 +3479,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3462,14 +3495,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3479,14 +3512,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3495,14 +3528,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3512,11 +3545,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3528,14 +3561,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3545,14 +3578,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3561,7 +3594,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3578,11 +3611,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3594,14 +3627,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3611,14 +3644,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3627,7 +3660,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3644,11 +3677,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3660,14 +3693,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3677,14 +3710,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3693,14 +3726,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3710,11 +3743,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3726,14 +3759,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3743,14 +3776,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3759,14 +3792,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3776,11 +3809,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3792,14 +3825,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3809,11 +3842,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3825,14 +3858,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3842,11 +3875,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3858,28 +3891,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3891,14 +3924,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3908,14 +3941,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3924,14 +3957,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3941,14 +3974,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3957,28 +3990,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3990,14 +4023,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4007,14 +4040,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4023,14 +4056,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4040,14 +4073,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4056,7 +4089,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4073,14 +4106,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4089,14 +4122,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4106,11 +4139,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4122,14 +4155,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4139,14 +4172,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4155,14 +4188,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4172,14 +4205,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4188,14 +4221,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4205,14 +4238,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4221,14 +4254,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4238,14 +4271,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4254,14 +4287,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4271,14 +4304,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4287,14 +4320,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4304,14 +4337,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4320,14 +4353,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4337,14 +4370,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4353,14 +4386,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4370,11 +4403,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4386,14 +4419,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4403,14 +4436,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4419,14 +4452,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4436,14 +4469,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4452,14 +4485,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4469,14 +4502,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>256</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4485,28 +4518,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4525,7 +4558,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4535,14 +4568,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4558,7 +4591,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4568,14 +4601,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4584,31 +4617,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4617,14 +4650,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4634,14 +4667,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4650,14 +4683,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4667,11 +4700,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4683,14 +4716,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4700,14 +4733,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>193</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4716,14 +4749,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4733,14 +4766,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4749,14 +4782,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4766,11 +4799,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4782,14 +4815,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4799,14 +4832,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4815,14 +4848,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4832,14 +4865,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4848,14 +4881,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4865,11 +4898,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4881,14 +4914,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4898,14 +4931,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4914,14 +4947,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4931,14 +4964,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4947,14 +4980,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4964,11 +4997,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4980,14 +5013,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4997,11 +5030,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5013,14 +5046,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5030,14 +5063,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5046,14 +5079,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5063,14 +5096,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5079,14 +5112,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5096,14 +5129,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5112,7 +5145,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5129,14 +5162,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5145,31 +5178,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>240</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5178,31 +5211,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>317</v>
+        <v>35</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>212</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5211,31 +5244,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5244,14 +5277,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>31</v>
+        <v>325</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5261,11 +5294,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5277,14 +5310,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5294,11 +5327,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>271</v>
+        <v>329</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5310,7 +5343,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5327,14 +5360,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5343,14 +5376,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5360,14 +5393,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5376,14 +5409,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5393,14 +5426,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5409,14 +5442,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5426,11 +5459,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5442,14 +5475,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5459,14 +5492,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5475,7 +5508,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5492,14 +5525,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>240</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5508,14 +5541,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5525,11 +5558,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>212</v>
+        <v>329</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5541,14 +5574,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>250</v>
+        <v>343</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5558,11 +5591,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5574,14 +5607,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>340</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5591,11 +5624,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>35</v>
+        <v>326</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5607,14 +5640,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5624,11 +5657,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5640,14 +5673,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5657,49 +5690,148 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7717.6599999999999</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>345</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>346</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
-        <v>347</v>
-      </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>350</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>351</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>13</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>39</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>352</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>261</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>13</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>353</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>354</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>355</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>218</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>13</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>329</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>330</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7847.5799999999999</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>356</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>357</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>358</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6313,10 +6445,25 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -452,6 +452,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>EPICOTIL 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>28.50</t>
+  </si>
+  <si>
+    <t>28.5000</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -824,6 +833,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
   </si>
   <si>
@@ -881,6 +899,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -1079,7 +1106,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 9:32 PM</t>
+    <t>Monday, 11 August, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3106,7 +3133,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3123,7 +3150,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3139,7 +3166,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3149,14 +3176,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3165,14 +3192,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3182,14 +3209,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3198,14 +3225,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3215,14 +3242,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>146</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3231,14 +3258,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3248,14 +3275,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3264,14 +3291,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3281,14 +3308,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3297,7 +3324,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3314,7 +3341,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3337,7 +3364,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3370,7 +3397,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3387,7 +3414,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3403,7 +3430,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3436,7 +3463,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3469,7 +3496,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3486,7 +3513,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3502,7 +3529,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3519,7 +3546,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3535,7 +3562,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3552,7 +3579,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3568,7 +3595,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3585,7 +3612,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3601,7 +3628,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3618,7 +3645,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3634,7 +3661,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3667,7 +3694,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3681,7 +3708,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3693,14 +3720,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3710,14 +3737,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3726,14 +3753,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3743,14 +3770,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3766,7 +3793,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3776,14 +3803,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3792,14 +3819,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3809,14 +3836,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3825,14 +3852,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3842,11 +3869,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3858,14 +3885,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3875,7 +3902,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3898,7 +3925,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3931,7 +3958,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3964,7 +3991,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3974,7 +4001,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3997,21 +4024,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4023,31 +4050,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4063,7 +4090,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4073,14 +4100,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4089,14 +4116,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4106,14 +4133,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4122,14 +4149,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4139,11 +4166,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4155,14 +4182,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4172,14 +4199,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4188,14 +4215,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4205,14 +4232,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4221,14 +4248,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4238,14 +4265,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4261,7 +4288,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4278,7 +4305,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4294,7 +4321,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4311,7 +4338,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4327,7 +4354,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4337,14 +4364,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4353,7 +4380,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4370,11 +4397,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>36</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4393,7 +4420,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4403,14 +4430,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4419,14 +4446,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4436,14 +4463,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4459,7 +4486,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4492,7 +4519,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4502,14 +4529,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4518,14 +4545,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4535,14 +4562,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4551,14 +4578,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4568,11 +4595,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4601,14 +4628,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>267</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4617,31 +4644,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q95" s="12">
         <v>270</v>
-      </c>
-      <c t="s" r="Q95" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4657,13 +4684,13 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4674,7 +4701,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4690,7 +4717,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4723,7 +4750,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>65</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4733,14 +4760,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>65</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4756,7 +4783,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4766,14 +4793,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4782,14 +4809,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4799,14 +4826,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4815,14 +4842,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4832,11 +4859,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4855,7 +4882,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4872,7 +4899,7 @@
         <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4888,7 +4915,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4905,7 +4932,7 @@
         <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4921,7 +4948,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4954,7 +4981,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4964,11 +4991,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4980,14 +5007,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4997,11 +5024,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5013,14 +5040,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5030,14 +5057,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5046,14 +5073,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5063,14 +5090,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5079,14 +5106,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5096,11 +5123,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5119,7 +5146,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5129,11 +5156,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>228</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5152,7 +5179,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5185,7 +5212,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5195,14 +5222,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5211,14 +5238,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>35</v>
+        <v>319</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5228,14 +5255,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5290,7 +5317,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5298,10 +5325,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5310,31 +5337,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>328</v>
+        <v>35</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>329</v>
+        <v>215</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5343,31 +5370,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5383,7 +5410,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>35</v>
+        <v>334</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5393,11 +5420,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5416,7 +5443,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>65</v>
+        <v>337</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5426,11 +5453,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5442,7 +5469,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5459,14 +5486,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5475,14 +5502,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5492,14 +5519,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>261</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5508,14 +5535,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5525,14 +5552,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5541,14 +5568,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5558,11 +5585,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>329</v>
+        <v>253</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5574,14 +5601,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>343</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5591,14 +5618,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5607,7 +5634,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5624,14 +5651,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5640,14 +5667,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5657,11 +5684,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>223</v>
+        <v>338</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5673,14 +5700,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>261</v>
+        <v>352</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5690,11 +5717,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5706,14 +5733,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>351</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5723,11 +5750,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5739,14 +5766,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5756,11 +5783,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>353</v>
+        <v>226</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5772,14 +5799,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5789,49 +5816,148 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7847.5799999999999</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>356</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>357</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>358</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>359</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>360</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>13</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>39</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>361</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>264</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>13</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>362</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>363</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>364</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>221</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>13</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>338</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>8005.9799999999996</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>365</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>366</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>367</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6460,10 +6586,25 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -908,6 +908,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>TRIGASTCARE 120 TAB</t>
+  </si>
+  <si>
+    <t>651.00</t>
+  </si>
+  <si>
+    <t>651.0000</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -983,6 +992,12 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>VONDALOUS 20MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -1106,7 +1121,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 9:40 PM</t>
+    <t>Monday, 11 August, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5020,7 +5035,7 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -5047,7 +5062,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5064,7 +5079,7 @@
         <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5080,7 +5095,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5090,14 +5105,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5106,14 +5121,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5123,11 +5138,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5139,14 +5154,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5156,11 +5171,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>311</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5179,7 +5194,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5196,7 +5211,7 @@
         <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5212,7 +5227,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5229,7 +5244,7 @@
         <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5245,7 +5260,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5255,11 +5270,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>231</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5278,7 +5293,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5288,14 +5303,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5311,7 +5326,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>325</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5321,14 +5336,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5337,14 +5352,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5354,14 +5369,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5370,14 +5385,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5394,7 +5409,7 @@
         <v>332</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5410,24 +5425,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>334</v>
+        <v>35</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5436,31 +5451,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>337</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5469,14 +5484,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5486,14 +5501,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5502,14 +5517,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>35</v>
+        <v>342</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5542,7 +5557,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5552,14 +5567,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5568,14 +5583,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5585,11 +5600,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5601,14 +5616,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5618,14 +5633,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>348</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5634,7 +5649,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5651,14 +5666,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5667,14 +5682,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5684,14 +5699,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5700,14 +5715,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>352</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5717,14 +5732,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5740,7 +5755,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5750,11 +5765,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5773,7 +5788,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>357</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5783,11 +5798,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5799,14 +5814,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5816,11 +5831,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5832,14 +5847,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5849,11 +5864,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>237</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5865,7 +5880,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5882,11 +5897,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5905,7 +5920,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>221</v>
+        <v>365</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5915,49 +5930,115 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>338</v>
+        <v>39</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>8005.9799999999996</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>365</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
         <v>366</v>
       </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>264</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>13</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
         <v>367</v>
       </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>368</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>369</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>221</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>13</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>343</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>344</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>8794.9799999999996</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>370</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>371</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>372</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6601,10 +6682,20 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>BETAPRONATE PLUS CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>BIPERIDEN 2MG 30 TAB.</t>
   </si>
   <si>
@@ -215,6 +224,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>CARNIVITA FORTE 30 F.C. TAB</t>
   </si>
   <si>
@@ -896,9 +914,6 @@
     <t>160.00</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -1121,7 +1136,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 9:42 PM</t>
+    <t>Monday, 11 August, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2158,7 +2173,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2191,7 +2206,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2224,7 +2239,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2234,11 +2249,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2250,14 +2265,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2274,7 +2289,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2290,7 +2305,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2307,7 +2322,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2323,7 +2338,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2340,7 +2355,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2356,7 +2371,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2366,14 +2381,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2399,11 +2414,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2415,14 +2430,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2432,14 +2447,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2455,7 +2470,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2488,7 +2503,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2498,11 +2513,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2514,14 +2529,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2531,14 +2546,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2564,14 +2579,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2580,14 +2595,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2597,14 +2612,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2613,14 +2628,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2630,11 +2645,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2663,14 +2678,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2679,14 +2694,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2696,14 +2711,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2729,7 +2744,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2752,7 +2767,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2762,14 +2777,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2795,14 +2810,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2818,7 +2833,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2835,7 +2850,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2851,7 +2866,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2884,7 +2899,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2901,7 +2916,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2917,7 +2932,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2927,14 +2942,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2960,14 +2975,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2976,31 +2991,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3016,7 +3031,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3033,7 +3048,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3049,13 +3064,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -3066,7 +3081,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3082,13 +3097,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -3099,7 +3114,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3115,7 +3130,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3129,10 +3144,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>146</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3154,7 +3169,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3165,7 +3180,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3181,7 +3196,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3195,10 +3210,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>152</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3214,7 +3229,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3224,11 +3239,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3240,7 +3255,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3257,11 +3272,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3273,14 +3288,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3290,14 +3305,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3306,14 +3321,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3323,14 +3338,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>162</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3346,7 +3361,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3356,14 +3371,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3379,7 +3394,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3389,14 +3404,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3405,14 +3420,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3422,7 +3437,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3445,7 +3460,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3462,7 +3477,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3478,7 +3493,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3495,7 +3510,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3544,7 +3559,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3561,7 +3576,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3577,7 +3592,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3594,7 +3609,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3610,7 +3625,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3627,7 +3642,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3643,7 +3658,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3660,7 +3675,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3676,7 +3691,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3709,7 +3724,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3726,7 +3741,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3756,7 +3771,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3768,14 +3783,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3785,14 +3800,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3801,7 +3816,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3818,11 +3833,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3834,14 +3849,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3851,14 +3866,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3867,7 +3882,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3884,11 +3899,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3900,14 +3915,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3917,14 +3932,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3933,14 +3948,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3950,11 +3965,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3966,14 +3981,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3983,7 +3998,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -4006,7 +4021,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4039,7 +4054,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4049,7 +4064,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -4078,7 +4093,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -4086,7 +4101,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4098,14 +4113,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4115,14 +4130,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4131,20 +4146,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4152,10 +4167,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4164,14 +4179,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4181,14 +4196,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4197,14 +4212,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4214,14 +4229,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4230,14 +4245,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4247,14 +4262,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4263,14 +4278,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4280,14 +4295,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4296,14 +4311,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4313,14 +4328,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4329,14 +4344,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4346,14 +4361,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4369,7 +4384,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4386,7 +4401,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4402,7 +4417,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4412,14 +4427,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4428,14 +4443,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4445,14 +4460,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4461,14 +4476,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4478,14 +4493,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4494,7 +4509,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4511,11 +4526,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4527,14 +4542,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4544,14 +4559,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4567,7 +4582,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4577,14 +4592,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4593,14 +4608,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4610,14 +4625,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4626,14 +4641,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4643,14 +4658,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4659,14 +4674,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4676,14 +4691,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>270</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4692,28 +4707,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4725,14 +4740,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4742,14 +4757,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>276</v>
-      </c>
-      <c t="s" r="Q97" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4765,13 +4780,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4782,7 +4797,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4798,7 +4813,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4831,7 +4846,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>68</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4841,14 +4856,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>65</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4864,7 +4879,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4874,14 +4889,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>46</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4890,14 +4905,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4907,14 +4922,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>202</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4923,14 +4938,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4940,11 +4955,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4963,7 +4978,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4980,7 +4995,7 @@
         <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4996,7 +5011,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5013,7 +5028,7 @@
         <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5029,13 +5044,13 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -5043,10 +5058,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5055,14 +5070,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5072,11 +5087,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5088,31 +5103,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5121,7 +5136,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5138,7 +5153,7 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
@@ -5161,7 +5176,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>264</v>
+        <v>68</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5175,10 +5190,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5187,14 +5202,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5204,7 +5219,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5227,7 +5242,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5241,10 +5256,10 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>317</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5253,14 +5268,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5270,11 +5285,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5286,14 +5301,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>322</v>
+        <v>25</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5303,14 +5318,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5319,14 +5334,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5336,14 +5351,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5352,14 +5367,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5369,11 +5384,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5392,7 +5407,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5402,14 +5417,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5418,14 +5433,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5435,14 +5450,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5451,14 +5466,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5475,7 +5490,7 @@
         <v>337</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5491,24 +5506,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>339</v>
+        <v>35</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5517,31 +5532,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>342</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5550,14 +5565,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>344</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5567,14 +5582,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>332</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5583,14 +5598,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>35</v>
+        <v>347</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5623,7 +5638,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5633,14 +5648,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>288</v>
+        <v>351</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5649,14 +5664,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5666,11 +5681,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>253</v>
+        <v>353</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5682,14 +5697,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5699,14 +5714,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>353</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5715,7 +5730,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5732,14 +5747,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5748,14 +5763,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5765,14 +5780,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5781,14 +5796,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>357</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5798,14 +5813,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5821,7 +5836,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5831,11 +5846,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>254</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5854,7 +5869,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>362</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5864,11 +5879,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>226</v>
+        <v>363</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5880,14 +5895,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5897,11 +5912,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5913,14 +5928,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>365</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5930,11 +5945,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>237</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5946,14 +5961,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5963,11 +5978,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5986,7 +6001,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>221</v>
+        <v>370</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5996,49 +6011,115 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>343</v>
+        <v>39</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>344</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>8794.9799999999996</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>370</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>371</v>
       </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>270</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>13</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
         <v>372</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>373</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>374</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>227</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>13</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>348</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>349</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>8902.9799999999996</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>375</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>376</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>377</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6692,10 +6773,20 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -422,7 +422,7 @@
     <t>70.00</t>
   </si>
   <si>
-    <t>35.0000</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>ECZANOGAB 2% OINTMENT</t>
@@ -1136,7 +1136,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 9:44 PM</t>
+    <t>Monday, 11 August, 2025 9:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3031,7 +3031,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3048,7 +3048,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -6089,7 +6089,7 @@
     </row>
     <row r="138" ht="24.75" customHeight="1">
       <c r="P138" s="13">
-        <v>8902.9799999999996</v>
+        <v>8867.9799999999996</v>
       </c>
       <c r="Q138" s="13"/>
     </row>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -1136,7 +1136,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 9:50 PM</t>
+    <t>Monday, 11 August, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
     <t>APEXIDONE 3MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -635,9 +644,6 @@
     <t>JAKARANDA 0.5MG 4 TAB</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>75.0000</t>
   </si>
   <si>
@@ -1136,7 +1142,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 10:03 PM</t>
+    <t>Monday, 11 August, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2041,7 +2047,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2074,7 +2080,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2091,7 +2097,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2107,7 +2113,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2117,14 +2123,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2133,14 +2139,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2150,14 +2156,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2166,14 +2172,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2206,7 +2212,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2239,7 +2245,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2272,7 +2278,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2282,11 +2288,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2298,14 +2304,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2322,7 +2328,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2338,7 +2344,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2355,7 +2361,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2371,7 +2377,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2388,7 +2394,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2404,7 +2410,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2437,7 +2443,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2447,14 +2453,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2463,7 +2469,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2480,14 +2486,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2503,7 +2509,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2536,7 +2542,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2569,7 +2575,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2579,11 +2585,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2595,14 +2601,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2612,14 +2618,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2635,7 +2641,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2645,11 +2651,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2661,14 +2667,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2685,7 +2691,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2701,7 +2707,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2711,14 +2717,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2727,14 +2733,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2767,7 +2773,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2777,14 +2783,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2793,14 +2799,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2810,14 +2816,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2826,14 +2832,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2843,14 +2849,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2866,7 +2872,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2899,7 +2905,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2916,7 +2922,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2932,7 +2938,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2949,7 +2955,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2965,7 +2971,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2998,7 +3004,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3008,14 +3014,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3024,14 +3030,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3041,14 +3047,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3064,13 +3070,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -3081,7 +3087,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3097,13 +3103,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -3130,7 +3136,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3147,7 +3153,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3169,7 +3175,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3180,7 +3186,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3196,13 +3202,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3210,10 +3216,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>152</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3229,7 +3235,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3243,10 +3249,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>155</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3262,7 +3268,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3279,7 +3285,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3295,7 +3301,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3305,14 +3311,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3321,14 +3327,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3371,14 +3377,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>152</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3404,14 +3410,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3420,14 +3426,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3437,14 +3443,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3453,14 +3459,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3470,7 +3476,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3493,7 +3499,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3526,7 +3532,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3543,7 +3549,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3559,7 +3565,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3592,7 +3598,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3625,7 +3631,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3642,7 +3648,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3658,7 +3664,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3675,7 +3681,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3691,7 +3697,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3708,7 +3714,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3724,7 +3730,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3741,7 +3747,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3757,7 +3763,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3774,7 +3780,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3790,7 +3796,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3823,7 +3829,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3837,7 +3843,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3849,14 +3855,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3866,14 +3872,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3882,14 +3888,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3899,14 +3905,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3922,7 +3928,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3932,14 +3938,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3965,14 +3971,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3981,14 +3987,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3998,11 +4004,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -4021,7 +4027,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4031,11 +4037,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4047,14 +4053,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4064,11 +4070,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4097,11 +4103,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4130,11 +4136,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4146,28 +4152,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4186,13 +4192,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4200,10 +4206,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4229,14 +4235,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4245,14 +4251,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4262,14 +4268,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4278,14 +4284,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4295,11 +4301,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4328,14 +4334,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4351,7 +4357,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4361,14 +4367,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4384,7 +4390,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4394,14 +4400,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4427,14 +4433,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4460,14 +4466,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4493,14 +4499,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4509,7 +4515,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4526,11 +4532,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4542,14 +4548,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4559,14 +4565,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4575,14 +4581,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4592,14 +4598,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>84</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4608,14 +4614,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4625,11 +4631,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4641,14 +4647,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4658,14 +4664,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4674,14 +4680,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4691,14 +4697,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4707,14 +4713,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4724,11 +4730,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4740,14 +4746,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4757,14 +4763,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>276</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4773,31 +4779,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4806,28 +4812,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4839,14 +4845,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4856,14 +4862,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4872,14 +4878,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>270</v>
+        <v>71</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4889,14 +4895,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4922,14 +4928,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>202</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4938,14 +4944,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4955,14 +4961,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>46</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4971,14 +4977,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4988,14 +4994,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>48</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5004,14 +5010,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5021,14 +5027,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5037,7 +5043,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5054,11 +5060,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>25</v>
@@ -5077,7 +5083,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5091,10 +5097,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5103,28 +5109,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5136,7 +5142,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5149,15 +5155,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5169,14 +5175,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5186,14 +5192,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5202,14 +5208,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5219,14 +5225,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5242,7 +5248,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5252,11 +5258,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5275,7 +5281,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5289,7 +5295,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5301,14 +5307,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5318,14 +5324,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5334,14 +5340,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5351,14 +5357,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5367,14 +5373,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>327</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5384,11 +5390,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5400,14 +5406,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5421,10 +5427,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5433,7 +5439,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5450,14 +5456,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
         <v>333</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5473,7 +5479,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>335</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5483,14 +5489,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>336</v>
+        <v>175</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5499,14 +5505,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5516,7 +5522,7 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>221</v>
+        <v>338</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
@@ -5539,7 +5545,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5549,14 +5555,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>341</v>
+        <v>223</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5565,31 +5571,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>344</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5598,14 +5604,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5615,11 +5621,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>349</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5631,14 +5637,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>349</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5648,14 +5654,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5671,7 +5677,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5685,10 +5691,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5697,14 +5703,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5714,11 +5720,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5730,14 +5736,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5747,11 +5753,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5763,7 +5769,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5780,14 +5786,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>336</v>
+        <v>261</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>270</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5813,14 +5819,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>68</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5829,14 +5835,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5846,14 +5852,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5862,14 +5868,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>362</v>
+        <v>16</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5879,11 +5885,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5895,14 +5901,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>364</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5912,11 +5918,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5928,7 +5934,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5945,11 +5951,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>232</v>
+        <v>347</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5968,7 +5974,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5978,11 +5984,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5994,14 +6000,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6011,11 +6017,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>39</v>
+        <v>350</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6034,7 +6040,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6044,11 +6050,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>372</v>
+        <v>39</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>373</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6060,14 +6066,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6077,49 +6083,82 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>8867.9799999999996</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>375</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
         <v>376</v>
       </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>229</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>13</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>350</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>351</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>8905.4799999999996</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
         <v>377</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
+        <v>378</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>379</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6783,10 +6822,15 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -386,6 +386,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>196.0000</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -488,6 +497,15 @@
     <t>28.5000</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -518,363 +536,372 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>6:5</t>
-  </si>
-  <si>
-    <t>11.7600</t>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>15.6000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>248.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>JAKARANDA 0.5MG 4 TAB</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.50</t>
+  </si>
+  <si>
+    <t>100.5000</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MEDIPHA D3 DROP</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OREX ORAL SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>79.50</t>
+  </si>
+  <si>
+    <t>79.5000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 1000 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>72.50</t>
+  </si>
+  <si>
+    <t>14.5000</t>
+  </si>
+  <si>
+    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>PONOFORTE 500MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>55.8600</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>35.2500</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>191.5200</t>
+  </si>
+  <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>248.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>JAKARANDA 0.5MG 4 TAB</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.50</t>
-  </si>
-  <si>
-    <t>100.5000</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MEDIPHA D3 DROP</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
-  </si>
-  <si>
-    <t>NEVILOB 5 MG 21 TAB</t>
-  </si>
-  <si>
-    <t>65.3400</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OREX ORAL SPRAY 60 ML</t>
-  </si>
-  <si>
-    <t>79.50</t>
-  </si>
-  <si>
-    <t>79.5000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>115.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 1000 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>72.50</t>
-  </si>
-  <si>
-    <t>14.5000</t>
-  </si>
-  <si>
-    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>PONOFORTE 500MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>55.8600</t>
-  </si>
-  <si>
-    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
-  </si>
-  <si>
-    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:13</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>35.2500</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>ROYAL ZAD</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>RX MASSAGE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>79.90</t>
-  </si>
-  <si>
-    <t>79.9000</t>
-  </si>
-  <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -965,9 +992,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
     <t>VITASTRESS 20 F.C. TABS.</t>
   </si>
   <si>
@@ -1142,7 +1166,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 10:06 PM</t>
+    <t>Monday, 11 August, 2025 10:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2905,7 +2929,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2922,7 +2946,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2938,7 +2962,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2955,7 +2979,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2971,7 +2995,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2988,7 +3012,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3004,7 +3028,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3037,7 +3061,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3047,14 +3071,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3063,14 +3087,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3080,14 +3104,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3103,13 +3127,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -3120,7 +3144,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3136,13 +3160,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3169,7 +3193,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3186,7 +3210,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3208,7 +3232,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3219,7 +3243,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3235,13 +3259,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3249,10 +3273,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3268,7 +3292,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3282,10 +3306,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>158</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3301,7 +3325,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3318,7 +3342,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3334,7 +3358,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3344,14 +3368,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3360,7 +3384,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3377,11 +3401,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3393,14 +3417,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3410,14 +3434,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3426,14 +3450,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3443,14 +3467,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>171</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3466,7 +3490,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3476,14 +3500,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3499,7 +3523,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3509,14 +3533,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3532,7 +3556,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3542,11 +3566,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3558,14 +3582,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3575,14 +3599,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3591,14 +3615,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3608,14 +3632,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3624,7 +3648,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3641,11 +3665,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3657,14 +3681,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3674,14 +3698,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3690,14 +3714,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3707,14 +3731,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3723,14 +3747,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3740,14 +3764,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3756,14 +3780,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3773,14 +3797,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3789,14 +3813,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3806,11 +3830,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3822,14 +3846,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3839,14 +3863,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3855,7 +3879,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3872,11 +3896,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3895,7 +3919,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3905,14 +3929,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3921,7 +3945,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3938,11 +3962,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3954,14 +3978,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3971,14 +3995,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3987,7 +4011,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -4004,11 +4028,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -4027,7 +4051,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4037,14 +4061,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4053,14 +4077,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4070,11 +4094,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4093,7 +4117,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4103,11 +4127,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4119,14 +4143,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4136,11 +4160,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4152,14 +4176,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4169,11 +4193,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4185,7 +4209,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4198,15 +4222,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4225,7 +4249,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4235,14 +4259,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>55</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4258,24 +4282,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4284,14 +4308,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4301,14 +4325,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4324,7 +4348,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4334,14 +4358,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4350,14 +4374,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4367,14 +4391,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4383,14 +4407,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4400,14 +4424,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4416,14 +4440,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4433,14 +4457,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>111</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4456,7 +4480,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4466,14 +4490,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4482,14 +4506,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4499,14 +4523,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4515,14 +4539,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4532,14 +4556,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4548,14 +4572,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4565,14 +4589,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4581,14 +4605,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4598,14 +4622,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4614,7 +4638,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4631,11 +4655,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4647,14 +4671,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4664,14 +4688,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4680,14 +4704,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4697,14 +4721,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4713,14 +4737,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4730,14 +4754,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>39</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4763,14 +4787,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4779,14 +4803,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4796,14 +4820,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>278</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4812,28 +4836,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4845,14 +4869,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4862,14 +4886,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4878,14 +4902,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4895,14 +4919,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>171</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4911,28 +4935,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4944,14 +4968,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4961,14 +4985,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4977,14 +5001,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4994,14 +5018,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>48</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>49</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5010,14 +5034,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5027,11 +5051,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5043,14 +5067,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5060,14 +5084,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5076,14 +5100,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5093,11 +5117,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>48</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -5109,14 +5133,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5126,11 +5150,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5142,31 +5166,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5175,14 +5199,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5192,14 +5216,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5232,7 +5256,7 @@
         <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5254,15 +5278,15 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5274,14 +5298,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5291,11 +5315,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5307,14 +5331,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5324,14 +5348,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5340,14 +5364,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5357,14 +5381,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5373,14 +5397,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5390,11 +5414,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5406,14 +5430,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5423,11 +5447,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5439,14 +5463,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5456,11 +5480,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>25</v>
@@ -5472,14 +5496,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5489,7 +5513,7 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>175</v>
+        <v>334</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
@@ -5526,10 +5550,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5538,14 +5562,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5555,14 +5579,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>223</v>
+        <v>340</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
         <v>341</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5588,14 +5612,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5604,31 +5628,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5644,24 +5668,24 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>349</v>
+        <v>35</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>350</v>
+        <v>228</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5670,31 +5694,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5703,14 +5727,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>35</v>
+        <v>354</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5724,7 +5748,7 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5736,14 +5760,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>71</v>
+        <v>357</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5753,11 +5777,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>296</v>
+        <v>358</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5769,7 +5793,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5786,14 +5810,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>261</v>
+        <v>361</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5802,14 +5826,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5819,14 +5843,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5835,14 +5859,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5852,14 +5876,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5868,14 +5892,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5885,11 +5909,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5901,14 +5925,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>364</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5918,14 +5942,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5934,7 +5958,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5951,14 +5975,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5967,14 +5991,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5984,11 +6008,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>234</v>
+        <v>358</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6000,14 +6024,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>272</v>
+        <v>372</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6017,11 +6041,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6033,14 +6057,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>372</v>
+        <v>12</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6050,11 +6074,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>39</v>
+        <v>355</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6066,14 +6090,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6083,11 +6107,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>374</v>
+        <v>239</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6099,14 +6123,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6116,49 +6140,148 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>8905.4799999999996</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
-        <v>377</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
-        <v>378</v>
-      </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
         <v>379</v>
       </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>380</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>13</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>39</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>381</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>277</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>13</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>382</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>383</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>384</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>234</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>13</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>358</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>359</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>9374.8400000000001</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
+        <v>385</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>386</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>387</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6827,10 +6950,25 @@
     <mergeCell ref="H138:K138"/>
     <mergeCell ref="L138:M138"/>
     <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -1166,7 +1166,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 10:08 PM</t>
+    <t>Monday, 11 August, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>BETAPRONATE PLUS CREAM 30 GM</t>
   </si>
   <si>
@@ -299,456 +308,456 @@
     <t>23.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>CYANARO 1% EYE DROPS 2.5 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>196.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>DEXATOBRIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>ECZANOGAB 2% OINTMENT</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
+    <t>EMEREST 4MG/2ML 5 AMPOULES</t>
+  </si>
+  <si>
+    <t>112.50</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>261.3600</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>EPICOTIL 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>28.50</t>
+  </si>
+  <si>
+    <t>28.5000</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>19.4400</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>248.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>JAKARANDA 0.5MG 4 TAB</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.50</t>
+  </si>
+  <si>
+    <t>100.5000</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MEDIPHA D3 DROP</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>CLATEX 75MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>CYANARO 1% EYE DROPS 2.5 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>CYSTONE 60 TAB</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>196.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>47.8800</t>
-  </si>
-  <si>
-    <t>DEXATOBRIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>ECZANOGAB 2% OINTMENT</t>
-  </si>
-  <si>
-    <t>169.00</t>
-  </si>
-  <si>
-    <t>169.0000</t>
-  </si>
-  <si>
-    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>31.5000</t>
-  </si>
-  <si>
-    <t>EMEREST 4MG/2ML 5 AMPOULES</t>
-  </si>
-  <si>
-    <t>112.50</t>
-  </si>
-  <si>
-    <t>22.5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>261.3600</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>EPICOTIL 20MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>28.50</t>
-  </si>
-  <si>
-    <t>28.5000</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:4</t>
-  </si>
-  <si>
-    <t>15.6000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>248.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>JAKARANDA 0.5MG 4 TAB</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.50</t>
-  </si>
-  <si>
-    <t>100.5000</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MEDIPHA D3 DROP</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -860,9 +869,6 @@
     <t>35.2500</t>
   </si>
   <si>
-    <t>0:5</t>
-  </si>
-  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -1134,6 +1140,9 @@
   </si>
   <si>
     <t>12.0000</t>
+  </si>
+  <si>
+    <t>شاش فازلين 10*30 سم</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -2269,7 +2278,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2302,7 +2311,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2335,7 +2344,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2345,11 +2354,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2361,14 +2370,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2385,7 +2394,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2401,7 +2410,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2418,7 +2427,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2434,7 +2443,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2451,7 +2460,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2467,7 +2476,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2500,7 +2509,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2510,14 +2519,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2526,7 +2535,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2543,14 +2552,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2566,7 +2575,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2599,7 +2608,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2632,7 +2641,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2642,14 +2651,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2675,14 +2684,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2698,7 +2707,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2708,11 +2717,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2748,7 +2757,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2764,7 +2773,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2774,14 +2783,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2830,7 +2839,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2840,14 +2849,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2946,7 +2955,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2962,7 +2971,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2979,7 +2988,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2995,7 +3004,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3012,7 +3021,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3028,7 +3037,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3045,7 +3054,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3061,7 +3070,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3094,7 +3103,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3120,14 +3129,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3137,14 +3146,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3160,13 +3169,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3177,7 +3186,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3193,13 +3202,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3226,7 +3235,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3243,7 +3252,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3265,7 +3274,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3276,7 +3285,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3292,13 +3301,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3306,10 +3315,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3325,7 +3334,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3339,10 +3348,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>161</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3358,7 +3367,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3375,7 +3384,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3408,7 +3417,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3424,7 +3433,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3434,14 +3443,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3467,14 +3476,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3500,14 +3509,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>158</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3516,14 +3525,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3533,14 +3542,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3556,7 +3565,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3566,14 +3575,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3599,11 +3608,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3632,11 +3641,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3665,14 +3674,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3688,7 +3697,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3721,7 +3730,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3754,7 +3763,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3771,7 +3780,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3787,7 +3796,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3804,7 +3813,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3820,7 +3829,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3837,7 +3846,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3853,7 +3862,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3870,7 +3879,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3886,7 +3895,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3903,7 +3912,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3919,7 +3928,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3952,7 +3961,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3966,7 +3975,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3978,14 +3987,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3995,14 +4004,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4044,14 +4053,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4061,14 +4070,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4094,14 +4103,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4127,11 +4136,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4143,14 +4152,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4160,7 +4169,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4183,7 +4192,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4216,7 +4225,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4249,7 +4258,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4259,7 +4268,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>55</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4282,21 +4291,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>55</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4308,31 +4317,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4341,14 +4350,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>106</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4358,14 +4367,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4374,14 +4383,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4391,14 +4400,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4407,14 +4416,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4424,11 +4433,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4440,14 +4449,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4457,14 +4466,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4473,14 +4482,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4490,14 +4499,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4506,14 +4515,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4523,14 +4532,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4546,7 +4555,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4563,7 +4572,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4579,7 +4588,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4596,7 +4605,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>103</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4612,7 +4621,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4622,14 +4631,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4638,7 +4647,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4655,11 +4664,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4678,7 +4687,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4688,14 +4697,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>85</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4704,14 +4713,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4721,14 +4730,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>87</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4744,7 +4753,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4777,7 +4786,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4787,14 +4796,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4803,14 +4812,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4820,14 +4829,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4836,14 +4845,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4853,11 +4862,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4886,14 +4895,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>283</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4902,14 +4911,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4919,14 +4928,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4935,31 +4944,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4968,28 +4977,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -5001,14 +5010,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5018,14 +5027,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>296</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5034,14 +5043,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5051,14 +5060,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5067,14 +5076,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5084,14 +5093,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5100,14 +5109,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5117,14 +5126,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>49</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5133,14 +5142,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5150,14 +5159,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>305</v>
+        <v>48</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5166,14 +5175,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5183,14 +5192,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5199,7 +5208,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5216,11 +5225,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>25</v>
@@ -5239,7 +5248,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5253,10 +5262,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5265,28 +5274,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5298,7 +5307,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5311,15 +5320,15 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5331,14 +5340,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5348,14 +5357,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5364,14 +5373,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5381,14 +5390,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>325</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5404,7 +5413,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5414,11 +5423,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>37</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5430,14 +5439,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5447,11 +5456,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>328</v>
+        <v>166</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>329</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5463,14 +5472,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5480,14 +5489,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5496,14 +5505,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5513,14 +5522,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5529,14 +5538,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>337</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5546,11 +5555,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5562,14 +5571,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>339</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5583,10 +5592,10 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>341</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5595,7 +5604,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5612,14 +5621,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>180</v>
+        <v>342</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
         <v>343</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5635,7 +5644,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>345</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5645,14 +5654,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>346</v>
+        <v>184</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5661,14 +5670,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>35</v>
+        <v>347</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5678,7 +5687,7 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>228</v>
+        <v>348</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
@@ -5701,7 +5710,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5711,14 +5720,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>351</v>
+        <v>231</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5727,31 +5736,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>354</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>267</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5760,14 +5769,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5777,11 +5786,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>359</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5793,14 +5802,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>359</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5810,14 +5819,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5833,7 +5842,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5847,10 +5856,10 @@
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5859,14 +5868,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5876,11 +5885,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5892,14 +5901,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5909,11 +5918,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5925,7 +5934,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5942,14 +5951,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>277</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5975,14 +5984,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>71</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5991,14 +6000,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6008,14 +6017,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6024,14 +6033,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>372</v>
+        <v>16</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6041,11 +6050,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6057,14 +6066,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>12</v>
+        <v>374</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6074,11 +6083,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>267</v>
+        <v>376</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6090,7 +6099,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6107,11 +6116,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>239</v>
+        <v>357</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>377</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6130,7 +6139,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6140,11 +6149,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>359</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6163,7 +6172,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6173,11 +6182,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6196,7 +6205,7 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6206,11 +6215,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6222,14 +6231,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>234</v>
+        <v>383</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6239,49 +6248,115 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>358</v>
+        <v>39</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>359</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
-      <c r="P142" s="13">
-        <v>9374.8400000000001</v>
-      </c>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c t="s" r="A143" s="14">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>384</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>280</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>13</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
         <v>385</v>
       </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c t="s" r="G143" s="15">
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
         <v>386</v>
       </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c t="s" r="K143" s="17">
+      <c t="s" r="Q142" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
         <v>387</v>
       </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>237</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>13</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>360</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>361</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="P144" s="13">
+        <v>9471.6800000000003</v>
+      </c>
+      <c r="Q144" s="13"/>
+    </row>
+    <row r="145" ht="16.5" customHeight="1">
+      <c t="s" r="A145" s="14">
+        <v>388</v>
+      </c>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c t="s" r="G145" s="15">
+        <v>389</v>
+      </c>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="16"/>
+      <c t="s" r="K145" s="17">
+        <v>390</v>
+      </c>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="687">
+  <mergeCells count="697">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6965,10 +7040,20 @@
     <mergeCell ref="H141:K141"/>
     <mergeCell ref="L141:M141"/>
     <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="P144:Q144"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="G145:I145"/>
+    <mergeCell ref="K145:Q145"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -947,6 +956,12 @@
     <t>94.0000</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -1061,6 +1076,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -1175,7 +1199,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 10:11 PM</t>
+    <t>Monday, 11 August, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2146,7 +2170,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2163,7 +2187,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2179,7 +2203,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2189,14 +2213,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2205,14 +2229,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2222,14 +2246,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2238,14 +2262,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2311,7 +2335,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2344,7 +2368,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2377,7 +2401,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2387,11 +2411,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2403,14 +2427,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2427,7 +2451,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2443,7 +2467,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2460,7 +2484,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2476,7 +2500,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2493,7 +2517,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2509,7 +2533,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2542,7 +2566,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2552,14 +2576,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2568,7 +2592,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2585,14 +2609,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2608,7 +2632,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2641,7 +2665,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2658,7 +2682,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2674,7 +2698,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2684,14 +2708,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2700,14 +2724,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2717,14 +2741,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2740,7 +2764,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2750,11 +2774,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2766,14 +2790,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2790,7 +2814,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2806,7 +2830,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2816,14 +2840,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2832,14 +2856,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2872,7 +2896,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2882,14 +2906,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2898,14 +2922,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2915,14 +2939,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2931,14 +2955,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2948,14 +2972,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2988,7 +3012,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -3004,7 +3028,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3021,7 +3045,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3037,7 +3061,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3054,7 +3078,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3070,7 +3094,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3087,7 +3111,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3103,7 +3127,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3136,7 +3160,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3146,14 +3170,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3162,14 +3186,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3179,14 +3203,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3202,13 +3226,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3219,7 +3243,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3235,13 +3259,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3268,7 +3292,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3285,7 +3309,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3307,7 +3331,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3318,7 +3342,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3334,13 +3358,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3348,10 +3372,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>161</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3367,7 +3391,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3381,10 +3405,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>164</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3400,7 +3424,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3417,7 +3441,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3450,7 +3474,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3466,7 +3490,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3476,14 +3500,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3492,14 +3516,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3509,14 +3533,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3525,14 +3549,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3542,14 +3566,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>161</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3558,14 +3582,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3575,14 +3599,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3591,14 +3615,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3608,14 +3632,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3624,14 +3648,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3641,7 +3665,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3664,7 +3688,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3678,7 +3702,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3690,14 +3714,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3707,14 +3731,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3730,7 +3754,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3763,7 +3787,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3796,7 +3820,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3813,7 +3837,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3829,7 +3853,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3846,7 +3870,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3862,7 +3886,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3879,7 +3903,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3895,7 +3919,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3912,7 +3936,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3928,7 +3952,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3945,7 +3969,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3961,7 +3985,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3994,7 +4018,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4008,7 +4032,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -4020,14 +4044,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4037,14 +4061,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4053,14 +4077,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4070,14 +4094,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4086,14 +4110,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4103,14 +4127,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4119,14 +4143,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4136,14 +4160,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4152,14 +4176,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4169,11 +4193,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4185,14 +4209,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4202,7 +4226,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4225,7 +4249,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4258,7 +4282,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4291,7 +4315,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4301,7 +4325,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>55</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4324,21 +4348,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4350,31 +4374,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>65</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4390,7 +4414,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4400,14 +4424,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4416,14 +4440,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4433,14 +4457,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4449,14 +4473,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4466,11 +4490,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4482,14 +4506,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4499,14 +4523,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4515,14 +4539,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4532,14 +4556,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4548,14 +4572,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4565,14 +4589,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4588,7 +4612,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4605,7 +4629,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4621,7 +4645,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4638,7 +4662,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4654,7 +4678,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4664,14 +4688,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4680,7 +4704,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4697,11 +4721,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4720,7 +4744,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4730,14 +4754,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4746,14 +4770,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4763,14 +4787,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4786,7 +4810,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4819,7 +4843,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4829,14 +4853,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4845,14 +4869,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4862,14 +4886,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4878,14 +4902,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4895,11 +4919,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4928,14 +4952,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4944,14 +4968,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4968,7 +4992,7 @@
         <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4984,13 +5008,13 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -5001,7 +5025,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5017,13 +5041,13 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -5050,7 +5074,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5067,7 +5091,7 @@
         <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>298</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5076,14 +5100,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5093,14 +5117,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q106" s="12">
         <v>301</v>
-      </c>
-      <c t="s" r="Q106" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5116,7 +5140,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5126,14 +5150,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5149,7 +5173,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5159,14 +5183,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>49</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5175,14 +5199,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5192,14 +5216,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>307</v>
+        <v>48</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5215,7 +5239,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5232,7 +5256,7 @@
         <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5262,7 +5286,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>25</v>
@@ -5274,14 +5298,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5291,14 +5315,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5314,13 +5338,13 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5328,10 +5352,10 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5340,14 +5364,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5357,11 +5381,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5373,31 +5397,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5406,7 +5430,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5423,7 +5447,7 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
@@ -5446,7 +5470,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5456,14 +5480,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>166</v>
+        <v>329</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>37</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5472,14 +5496,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5489,11 +5513,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>330</v>
+        <v>272</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5505,14 +5529,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5522,14 +5546,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>333</v>
+        <v>169</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>334</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5538,14 +5562,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5555,11 +5579,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5571,14 +5595,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>339</v>
+        <v>25</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5588,14 +5612,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>246</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5604,14 +5628,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5621,14 +5645,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5637,14 +5661,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5654,11 +5678,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>345</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5677,7 +5701,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>347</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5687,14 +5711,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5703,14 +5727,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5720,14 +5744,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5736,14 +5760,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>352</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5760,7 +5784,7 @@
         <v>354</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5776,24 +5800,24 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>356</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5809,24 +5833,24 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>359</v>
+        <v>35</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>360</v>
+        <v>234</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5835,31 +5859,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5868,14 +5892,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>35</v>
+        <v>364</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5889,7 +5913,7 @@
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>366</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5901,14 +5925,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>74</v>
+        <v>367</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5918,11 +5942,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>308</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5934,7 +5958,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5951,14 +5975,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5967,14 +5991,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5984,14 +6008,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>280</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -6000,14 +6024,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6017,14 +6041,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6033,14 +6057,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6050,11 +6074,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6066,14 +6090,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>374</v>
+        <v>12</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6083,14 +6107,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>283</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6099,7 +6123,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6116,14 +6140,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>270</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6132,14 +6156,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6149,11 +6173,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6165,14 +6189,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>12</v>
+        <v>382</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6182,11 +6206,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>241</v>
+        <v>383</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6198,14 +6222,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6215,11 +6239,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6231,14 +6255,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>383</v>
+        <v>12</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6248,11 +6272,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>39</v>
+        <v>365</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6264,14 +6288,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6281,11 +6305,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>385</v>
+        <v>244</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6297,14 +6321,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6314,49 +6338,148 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
-      <c r="P144" s="13">
-        <v>9471.6800000000003</v>
-      </c>
-      <c r="Q144" s="13"/>
-    </row>
-    <row r="145" ht="16.5" customHeight="1">
-      <c t="s" r="A145" s="14">
-        <v>388</v>
-      </c>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c t="s" r="G145" s="15">
-        <v>389</v>
-      </c>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="16"/>
-      <c t="s" r="K145" s="17">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
         <v>390</v>
       </c>
-      <c r="L145" s="17"/>
-      <c r="M145" s="17"/>
-      <c r="N145" s="17"/>
-      <c r="O145" s="17"/>
-      <c r="P145" s="17"/>
-      <c r="Q145" s="17"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>391</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>13</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>39</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>392</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>283</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>13</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>393</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>394</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>395</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>240</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>13</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>368</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>369</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="P147" s="13">
+        <v>9627.5599999999995</v>
+      </c>
+      <c r="Q147" s="13"/>
+    </row>
+    <row r="148" ht="16.5" customHeight="1">
+      <c t="s" r="A148" s="14">
+        <v>396</v>
+      </c>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c t="s" r="G148" s="15">
+        <v>397</v>
+      </c>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="16"/>
+      <c t="s" r="K148" s="17">
+        <v>398</v>
+      </c>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="17"/>
+      <c r="Q148" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="697">
+  <mergeCells count="712">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7050,10 +7173,25 @@
     <mergeCell ref="H143:K143"/>
     <mergeCell ref="L143:M143"/>
     <mergeCell ref="N143:O143"/>
-    <mergeCell ref="P144:Q144"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="G145:I145"/>
-    <mergeCell ref="K145:Q145"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="K148:Q148"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -332,7 +332,7 @@
     <t>117.00</t>
   </si>
   <si>
-    <t>38.6100</t>
+    <t>77.2200</t>
   </si>
   <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
@@ -368,6 +368,15 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -1199,7 +1208,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 10:16 PM</t>
+    <t>Monday, 11 August, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2764,7 +2773,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2781,7 +2790,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2896,7 +2905,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2929,7 +2938,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2939,14 +2948,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2955,14 +2964,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2972,14 +2981,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2988,14 +2997,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -3005,14 +3014,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -3045,7 +3054,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3061,7 +3070,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3078,7 +3087,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3094,7 +3103,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3111,7 +3120,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3127,7 +3136,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3144,7 +3153,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3160,7 +3169,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3193,7 +3202,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3203,14 +3212,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3219,14 +3228,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3236,14 +3245,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3259,13 +3268,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3276,7 +3285,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3292,13 +3301,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3325,7 +3334,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3342,7 +3351,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3364,7 +3373,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3375,7 +3384,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3391,13 +3400,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3405,10 +3414,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>164</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3424,7 +3433,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3438,10 +3447,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>167</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3457,7 +3466,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3474,7 +3483,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3507,7 +3516,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3523,7 +3532,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3533,14 +3542,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3566,14 +3575,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3599,14 +3608,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>164</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3632,14 +3641,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3665,14 +3674,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3681,7 +3690,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3698,7 +3707,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3721,7 +3730,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3735,7 +3744,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3764,14 +3773,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3787,7 +3796,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3820,7 +3829,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3853,7 +3862,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3870,7 +3879,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3886,7 +3895,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3903,7 +3912,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>77</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3919,7 +3928,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3936,7 +3945,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3952,7 +3961,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3969,7 +3978,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3985,7 +3994,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -4002,7 +4011,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -4018,7 +4027,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4051,7 +4060,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4065,7 +4074,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4094,14 +4103,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4127,14 +4136,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4143,14 +4152,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4160,14 +4169,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4176,14 +4185,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4193,14 +4202,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4209,14 +4218,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4226,11 +4235,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4242,14 +4251,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4259,7 +4268,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4282,7 +4291,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4315,7 +4324,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4348,7 +4357,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4358,7 +4367,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4381,21 +4390,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>66</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4407,31 +4416,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4447,7 +4456,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4457,14 +4466,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4473,14 +4482,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4490,14 +4499,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4506,14 +4515,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4523,11 +4532,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4539,14 +4548,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4556,14 +4565,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4572,14 +4581,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4589,14 +4598,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4605,14 +4614,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4622,14 +4631,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4645,7 +4654,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4662,7 +4671,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4678,7 +4687,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4695,7 +4704,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4711,7 +4720,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4721,14 +4730,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4737,7 +4746,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4754,11 +4763,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>36</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4777,7 +4786,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4787,14 +4796,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>90</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>91</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4803,14 +4812,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4820,14 +4829,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>90</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4843,7 +4852,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4876,7 +4885,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>43</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4886,14 +4895,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4902,14 +4911,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4919,14 +4928,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4935,14 +4944,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4952,11 +4961,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4985,14 +4994,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -5001,14 +5010,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -5025,7 +5034,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5041,13 +5050,13 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -5058,7 +5067,7 @@
         <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5074,13 +5083,13 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -5107,7 +5116,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5124,7 +5133,7 @@
         <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>301</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5133,14 +5142,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5150,14 +5159,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q107" s="12">
         <v>304</v>
-      </c>
-      <c t="s" r="Q107" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5173,7 +5182,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5183,14 +5192,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5206,7 +5215,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5216,14 +5225,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5232,14 +5241,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5249,14 +5258,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>310</v>
+        <v>48</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>311</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5272,7 +5281,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5289,7 +5298,7 @@
         <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5305,7 +5314,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5315,11 +5324,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5331,14 +5340,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5348,11 +5357,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>25</v>
@@ -5364,14 +5373,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5381,14 +5390,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5404,13 +5413,13 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5443,7 +5452,7 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
@@ -5470,7 +5479,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5487,7 +5496,7 @@
         <v>330</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5503,7 +5512,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5513,14 +5522,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5529,14 +5538,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5546,11 +5555,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>37</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5562,14 +5571,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5579,11 +5588,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>335</v>
+        <v>172</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>336</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5602,7 +5611,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5619,7 +5628,7 @@
         <v>339</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5635,7 +5644,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5652,7 +5661,7 @@
         <v>342</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5668,7 +5677,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>344</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5678,11 +5687,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>249</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5701,7 +5710,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>347</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5711,14 +5720,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>348</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5744,14 +5753,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5760,14 +5769,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>352</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5777,14 +5786,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>353</v>
+        <v>190</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5793,14 +5802,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>355</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5817,7 +5826,7 @@
         <v>357</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5833,7 +5842,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5843,14 +5852,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>234</v>
+        <v>359</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5859,14 +5868,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5876,14 +5885,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>361</v>
+        <v>237</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
         <v>362</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5899,24 +5908,24 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>364</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>273</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5946,7 +5955,7 @@
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>369</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5958,14 +5967,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>370</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5979,10 +5988,10 @@
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5991,14 +6000,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -6008,14 +6017,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -6031,7 +6040,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6041,11 +6050,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6057,14 +6066,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6074,11 +6083,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6090,7 +6099,7 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6107,14 +6116,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>353</v>
+        <v>275</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>283</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6123,7 +6132,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6140,14 +6149,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>77</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6156,14 +6165,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6173,14 +6182,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6189,14 +6198,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>382</v>
+        <v>16</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6206,11 +6215,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6222,14 +6231,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6239,11 +6248,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>273</v>
+        <v>387</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6255,7 +6264,7 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
@@ -6272,11 +6281,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6288,7 +6297,7 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6305,11 +6314,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>244</v>
+        <v>368</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>388</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6321,14 +6330,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6338,11 +6347,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>368</v>
+        <v>247</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6354,14 +6363,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>391</v>
+        <v>286</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6371,11 +6380,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>39</v>
+        <v>371</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6387,14 +6396,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>283</v>
+        <v>394</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6404,11 +6413,11 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>393</v>
+        <v>39</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>394</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>16</v>
@@ -6427,7 +6436,7 @@
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6437,49 +6446,82 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
-      <c r="P147" s="13">
-        <v>9627.5599999999995</v>
-      </c>
-      <c r="Q147" s="13"/>
-    </row>
-    <row r="148" ht="16.5" customHeight="1">
-      <c t="s" r="A148" s="14">
-        <v>396</v>
-      </c>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c t="s" r="G148" s="15">
-        <v>397</v>
-      </c>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="16"/>
-      <c t="s" r="K148" s="17">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
         <v>398</v>
       </c>
-      <c r="L148" s="17"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17"/>
-      <c r="O148" s="17"/>
-      <c r="P148" s="17"/>
-      <c r="Q148" s="17"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>243</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>13</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>371</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
+        <v>372</v>
+      </c>
+      <c t="s" r="Q147" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="P148" s="13">
+        <v>9735.4699999999993</v>
+      </c>
+      <c r="Q148" s="13"/>
+    </row>
+    <row r="149" ht="16.5" customHeight="1">
+      <c t="s" r="A149" s="14">
+        <v>399</v>
+      </c>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c t="s" r="G149" s="15">
+        <v>400</v>
+      </c>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="16"/>
+      <c t="s" r="K149" s="17">
+        <v>401</v>
+      </c>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
+      <c r="P149" s="17"/>
+      <c r="Q149" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="712">
+  <mergeCells count="717">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7188,10 +7230,15 @@
     <mergeCell ref="H146:K146"/>
     <mergeCell ref="L146:M146"/>
     <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P147:Q147"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="K148:Q148"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="P148:Q148"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="K149:Q149"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-11_00-00.xlsx
+++ b/DaySale_2025-08-11_00-00.xlsx
@@ -143,6 +143,12 @@
     <t>0:2</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
     <t>APEXIDONE 2MG 20 F.C.TAB.</t>
   </si>
   <si>
@@ -437,7 +443,7 @@
     <t>36.00</t>
   </si>
   <si>
-    <t>47.8800</t>
+    <t>59.7600</t>
   </si>
   <si>
     <t>DEXATOBRIN EYE OINT. 5 GM</t>
@@ -563,9 +569,6 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>6:4</t>
-  </si>
-  <si>
     <t>19.4400</t>
   </si>
   <si>
@@ -746,6 +749,12 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
     <t>MEDIPHA D3 DROP</t>
   </si>
   <si>
@@ -890,9 +899,6 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>191.5200</t>
   </si>
   <si>
@@ -1193,7 +1199,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>22:0</t>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
   </si>
   <si>
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
@@ -1208,7 +1217,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Monday, 11 August, 2025 10:18 PM</t>
+    <t>Monday, 11 August, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2113,21 +2122,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2156,11 +2165,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2189,11 +2198,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>25</v>
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2255,14 +2264,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2271,14 +2280,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2288,14 +2297,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2304,14 +2313,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2321,11 +2330,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2337,7 +2346,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2354,11 +2363,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2387,11 +2396,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2420,11 +2429,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2453,11 +2462,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2486,14 +2495,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2502,14 +2511,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2519,14 +2528,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2552,14 +2561,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2568,14 +2577,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2585,11 +2594,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2618,14 +2627,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2651,14 +2660,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2684,11 +2693,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2717,14 +2726,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2733,14 +2742,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2750,14 +2759,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2773,7 +2782,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2783,14 +2792,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2799,14 +2808,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2849,14 +2858,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8